--- a/problem solving level 2.xlsx
+++ b/problem solving level 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="problem solving level 2" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t xml:space="preserve">Round Number </t>
   </si>
@@ -952,6 +952,21 @@
   </si>
   <si>
     <t>brute force</t>
+  </si>
+  <si>
+    <t>Reading Time in (min)</t>
+  </si>
+  <si>
+    <t>Thinking Time in (min)</t>
+  </si>
+  <si>
+    <t>Coding Time in (min)</t>
+  </si>
+  <si>
+    <t>Debug Time in (min)</t>
+  </si>
+  <si>
+    <t>Total Time in (min)</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +2012,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J407"/>
+  <dimension ref="A1:O407"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:A3"/>
@@ -2009,11 +2024,12 @@
     <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="5" customWidth="1"/>
     <col min="4" max="8" width="7.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="62.5703125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="99" style="1" customWidth="1"/>
+    <col min="9" max="13" width="11.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="62.5703125" style="18" customWidth="1"/>
+    <col min="15" max="15" width="99" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2038,14 +2054,29 @@
       <c r="H1" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2054,12 +2085,17 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -2083,16 +2119,36 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I3" s="7">
-        <f>COUNTA(I4:I995)</f>
+      <c r="I3" s="8" t="e">
+        <f>AVERAGE(I4:I303)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="8" t="e">
+        <f>AVERAGE(J4:J303)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="8" t="e">
+        <f>AVERAGE(K4:K303)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="8" t="e">
+        <f>AVERAGE(L4:L303)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="8">
+        <f>AVERAGE(M4:M303)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <f>COUNTA(N4:N995)</f>
         <v>300</v>
       </c>
-      <c r="J3" s="8">
-        <f>COUNTA(J4:J999)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="8">
+        <f>COUNTA(O4:O999)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>215</v>
       </c>
@@ -2109,12 +2165,20 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10">
+        <f>SUM(I4:L4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>367</v>
       </c>
@@ -2131,12 +2195,20 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10">
+        <f>SUM(I5:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>377</v>
       </c>
@@ -2153,12 +2225,20 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10">
+        <f>SUM(I6:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>140</v>
       </c>
@@ -2175,12 +2255,20 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10">
+        <f>SUM(I7:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>149</v>
       </c>
@@ -2197,12 +2285,20 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10">
+        <f>SUM(I8:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>211</v>
       </c>
@@ -2219,12 +2315,20 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10">
+        <f t="shared" ref="M9:M72" si="1">SUM(I9:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>227</v>
       </c>
@@ -2241,12 +2345,20 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>246</v>
       </c>
@@ -2263,12 +2375,20 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>251</v>
       </c>
@@ -2285,12 +2405,20 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>315</v>
       </c>
@@ -2307,12 +2435,20 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>345</v>
       </c>
@@ -2329,12 +2465,20 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>111</v>
       </c>
@@ -2351,12 +2495,20 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>187</v>
       </c>
@@ -2373,12 +2525,20 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>248</v>
       </c>
@@ -2395,12 +2555,20 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>359</v>
       </c>
@@ -2417,12 +2585,20 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>364</v>
       </c>
@@ -2439,12 +2615,20 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>126</v>
       </c>
@@ -2461,12 +2645,20 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>379</v>
       </c>
@@ -2483,12 +2675,20 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>117</v>
       </c>
@@ -2505,12 +2705,20 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>162</v>
       </c>
@@ -2527,12 +2735,20 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>164</v>
       </c>
@@ -2549,12 +2765,20 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>255</v>
       </c>
@@ -2571,12 +2795,20 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>299</v>
       </c>
@@ -2593,12 +2825,20 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>349</v>
       </c>
@@ -2615,12 +2855,20 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>350</v>
       </c>
@@ -2637,12 +2885,20 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>378</v>
       </c>
@@ -2659,12 +2915,20 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>110</v>
       </c>
@@ -2681,12 +2945,20 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>118</v>
       </c>
@@ -2703,12 +2975,20 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>235</v>
       </c>
@@ -2725,12 +3005,20 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>242</v>
       </c>
@@ -2747,12 +3035,20 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>247</v>
       </c>
@@ -2769,12 +3065,20 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>260</v>
       </c>
@@ -2791,12 +3095,20 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="15"/>
+    </row>
+    <row r="36" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>264</v>
       </c>
@@ -2813,12 +3125,20 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>267</v>
       </c>
@@ -2835,12 +3155,20 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="17" t="s">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>280</v>
       </c>
@@ -2857,12 +3185,20 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="17" t="s">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J38" s="13"/>
-    </row>
-    <row r="39" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>294</v>
       </c>
@@ -2879,12 +3215,20 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>322</v>
       </c>
@@ -2901,12 +3245,20 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="17" t="s">
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O40" s="15"/>
+    </row>
+    <row r="41" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>328</v>
       </c>
@@ -2923,12 +3275,20 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="17" t="s">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="15"/>
-    </row>
-    <row r="42" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="15"/>
+    </row>
+    <row r="42" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>374</v>
       </c>
@@ -2945,12 +3305,20 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="17" t="s">
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="13"/>
+    </row>
+    <row r="43" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>376</v>
       </c>
@@ -2967,12 +3335,20 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="17" t="s">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J43" s="15"/>
-    </row>
-    <row r="44" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="15"/>
+    </row>
+    <row r="44" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>381</v>
       </c>
@@ -2989,12 +3365,20 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="17" t="s">
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J44" s="15"/>
-    </row>
-    <row r="45" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="15"/>
+    </row>
+    <row r="45" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>384</v>
       </c>
@@ -3011,12 +3395,20 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
-      <c r="I45" s="17" t="s">
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="J45" s="13"/>
-    </row>
-    <row r="46" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="13"/>
+    </row>
+    <row r="46" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>400</v>
       </c>
@@ -3033,12 +3425,20 @@
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J46" s="15"/>
-    </row>
-    <row r="47" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="15"/>
+    </row>
+    <row r="47" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>163</v>
       </c>
@@ -3055,12 +3455,20 @@
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="17" t="s">
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J47" s="15"/>
-    </row>
-    <row r="48" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="15"/>
+    </row>
+    <row r="48" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>386</v>
       </c>
@@ -3077,12 +3485,20 @@
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="17" t="s">
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J48" s="13"/>
-    </row>
-    <row r="49" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O48" s="13"/>
+    </row>
+    <row r="49" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>284</v>
       </c>
@@ -3099,12 +3515,20 @@
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
-      <c r="I49" s="17" t="s">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J49" s="13"/>
-    </row>
-    <row r="50" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O49" s="13"/>
+    </row>
+    <row r="50" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>352</v>
       </c>
@@ -3121,12 +3545,20 @@
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="17" t="s">
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J50" s="15"/>
-    </row>
-    <row r="51" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O50" s="15"/>
+    </row>
+    <row r="51" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>360</v>
       </c>
@@ -3143,12 +3575,20 @@
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="17" t="s">
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J51" s="13"/>
-    </row>
-    <row r="52" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O51" s="13"/>
+    </row>
+    <row r="52" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>387</v>
       </c>
@@ -3165,12 +3605,20 @@
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
-      <c r="I52" s="17" t="s">
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J52" s="13"/>
-    </row>
-    <row r="53" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O52" s="13"/>
+    </row>
+    <row r="53" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>174</v>
       </c>
@@ -3187,12 +3635,20 @@
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="17" t="s">
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J53" s="15"/>
-    </row>
-    <row r="54" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="15"/>
+    </row>
+    <row r="54" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>285</v>
       </c>
@@ -3209,12 +3665,20 @@
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="17" t="s">
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="15"/>
-    </row>
-    <row r="55" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O54" s="15"/>
+    </row>
+    <row r="55" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>348</v>
       </c>
@@ -3231,12 +3695,20 @@
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
-      <c r="I55" s="17" t="s">
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J55" s="15"/>
-    </row>
-    <row r="56" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O55" s="15"/>
+    </row>
+    <row r="56" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>375</v>
       </c>
@@ -3253,12 +3725,20 @@
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="17" t="s">
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="J56" s="15"/>
-    </row>
-    <row r="57" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="15"/>
+    </row>
+    <row r="57" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>397</v>
       </c>
@@ -3275,12 +3755,20 @@
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="17" t="s">
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="J57" s="15"/>
-    </row>
-    <row r="58" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O57" s="15"/>
+    </row>
+    <row r="58" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>102</v>
       </c>
@@ -3297,12 +3785,20 @@
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="17" t="s">
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="J58" s="13"/>
-    </row>
-    <row r="59" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O58" s="13"/>
+    </row>
+    <row r="59" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>156</v>
       </c>
@@ -3319,12 +3815,20 @@
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="17" t="s">
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="J59" s="15"/>
-    </row>
-    <row r="60" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O59" s="15"/>
+    </row>
+    <row r="60" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>186</v>
       </c>
@@ -3341,12 +3845,20 @@
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
-      <c r="I60" s="17" t="s">
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J60" s="15"/>
-    </row>
-    <row r="61" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O60" s="15"/>
+    </row>
+    <row r="61" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>228</v>
       </c>
@@ -3363,12 +3875,20 @@
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="17" t="s">
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="J61" s="15"/>
-    </row>
-    <row r="62" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O61" s="15"/>
+    </row>
+    <row r="62" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>238</v>
       </c>
@@ -3385,12 +3905,20 @@
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="17" t="s">
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="J62" s="15"/>
-    </row>
-    <row r="63" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O62" s="15"/>
+    </row>
+    <row r="63" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>145</v>
       </c>
@@ -3407,12 +3935,20 @@
         <v>1</v>
       </c>
       <c r="H63" s="9"/>
-      <c r="I63" s="17" t="s">
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J63" s="13"/>
-    </row>
-    <row r="64" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O63" s="13"/>
+    </row>
+    <row r="64" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>161</v>
       </c>
@@ -3429,12 +3965,20 @@
         <v>1</v>
       </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="17" t="s">
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J64" s="13"/>
-    </row>
-    <row r="65" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O64" s="13"/>
+    </row>
+    <row r="65" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>265</v>
       </c>
@@ -3451,12 +3995,20 @@
         <v>1</v>
       </c>
       <c r="H65" s="9"/>
-      <c r="I65" s="17" t="s">
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J65" s="15"/>
-    </row>
-    <row r="66" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O65" s="15"/>
+    </row>
+    <row r="66" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>356</v>
       </c>
@@ -3473,12 +4025,20 @@
         <v>1</v>
       </c>
       <c r="H66" s="9"/>
-      <c r="I66" s="17" t="s">
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="13"/>
-    </row>
-    <row r="67" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O66" s="13"/>
+    </row>
+    <row r="67" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>395</v>
       </c>
@@ -3495,12 +4055,20 @@
         <v>1</v>
       </c>
       <c r="H67" s="9"/>
-      <c r="I67" s="17" t="s">
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J67" s="13"/>
-    </row>
-    <row r="68" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O67" s="13"/>
+    </row>
+    <row r="68" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>134</v>
       </c>
@@ -3517,12 +4085,20 @@
         <v>1</v>
       </c>
       <c r="H68" s="9"/>
-      <c r="I68" s="17" t="s">
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J68" s="13"/>
-    </row>
-    <row r="69" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O68" s="13"/>
+    </row>
+    <row r="69" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>197</v>
       </c>
@@ -3539,12 +4115,20 @@
         <v>1</v>
       </c>
       <c r="H69" s="9"/>
-      <c r="I69" s="17" t="s">
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J69" s="13"/>
-    </row>
-    <row r="70" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O69" s="13"/>
+    </row>
+    <row r="70" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>223</v>
       </c>
@@ -3561,12 +4145,20 @@
         <v>1</v>
       </c>
       <c r="H70" s="9"/>
-      <c r="I70" s="17" t="s">
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="J70" s="13"/>
-    </row>
-    <row r="71" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O70" s="13"/>
+    </row>
+    <row r="71" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>244</v>
       </c>
@@ -3583,12 +4175,20 @@
         <v>1</v>
       </c>
       <c r="H71" s="9"/>
-      <c r="I71" s="17" t="s">
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J71" s="13"/>
-    </row>
-    <row r="72" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O71" s="13"/>
+    </row>
+    <row r="72" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>109</v>
       </c>
@@ -3605,12 +4205,20 @@
         <v>1</v>
       </c>
       <c r="H72" s="9"/>
-      <c r="I72" s="17" t="s">
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J72" s="13"/>
-    </row>
-    <row r="73" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O72" s="13"/>
+    </row>
+    <row r="73" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>182</v>
       </c>
@@ -3627,12 +4235,20 @@
         <v>1</v>
       </c>
       <c r="H73" s="9"/>
-      <c r="I73" s="17" t="s">
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="10">
+        <f t="shared" ref="M73:M136" si="2">SUM(I73:L73)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="J73" s="13"/>
-    </row>
-    <row r="74" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O73" s="13"/>
+    </row>
+    <row r="74" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>201</v>
       </c>
@@ -3649,12 +4265,20 @@
         <v>1</v>
       </c>
       <c r="H74" s="9"/>
-      <c r="I74" s="17" t="s">
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J74" s="15"/>
-    </row>
-    <row r="75" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O74" s="15"/>
+    </row>
+    <row r="75" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>206</v>
       </c>
@@ -3671,12 +4295,20 @@
         <v>1</v>
       </c>
       <c r="H75" s="9"/>
-      <c r="I75" s="17" t="s">
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="J75" s="15"/>
-    </row>
-    <row r="76" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O75" s="15"/>
+    </row>
+    <row r="76" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>210</v>
       </c>
@@ -3693,12 +4325,20 @@
         <v>1</v>
       </c>
       <c r="H76" s="9"/>
-      <c r="I76" s="17" t="s">
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="J76" s="13"/>
-    </row>
-    <row r="77" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O76" s="13"/>
+    </row>
+    <row r="77" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>212</v>
       </c>
@@ -3715,12 +4355,20 @@
         <v>1</v>
       </c>
       <c r="H77" s="9"/>
-      <c r="I77" s="17" t="s">
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="J77" s="13"/>
-    </row>
-    <row r="78" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O77" s="13"/>
+    </row>
+    <row r="78" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>213</v>
       </c>
@@ -3737,12 +4385,20 @@
         <v>1</v>
       </c>
       <c r="H78" s="9"/>
-      <c r="I78" s="17" t="s">
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="J78" s="15"/>
-    </row>
-    <row r="79" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="15"/>
+    </row>
+    <row r="79" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>323</v>
       </c>
@@ -3759,12 +4415,20 @@
         <v>1</v>
       </c>
       <c r="H79" s="9"/>
-      <c r="I79" s="17" t="s">
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="J79" s="15"/>
-    </row>
-    <row r="80" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O79" s="15"/>
+    </row>
+    <row r="80" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>331</v>
       </c>
@@ -3781,12 +4445,20 @@
         <v>1</v>
       </c>
       <c r="H80" s="9"/>
-      <c r="I80" s="17" t="s">
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J80" s="13"/>
-    </row>
-    <row r="81" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="13"/>
+    </row>
+    <row r="81" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>358</v>
       </c>
@@ -3803,12 +4475,20 @@
         <v>1</v>
       </c>
       <c r="H81" s="9"/>
-      <c r="I81" s="17" t="s">
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="J81" s="15"/>
-    </row>
-    <row r="82" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O81" s="15"/>
+    </row>
+    <row r="82" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>366</v>
       </c>
@@ -3825,12 +4505,20 @@
         <v>1</v>
       </c>
       <c r="H82" s="9"/>
-      <c r="I82" s="17" t="s">
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J82" s="13"/>
-    </row>
-    <row r="83" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O82" s="13"/>
+    </row>
+    <row r="83" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>371</v>
       </c>
@@ -3847,12 +4535,20 @@
         <v>1</v>
       </c>
       <c r="H83" s="9"/>
-      <c r="I83" s="17" t="s">
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="J83" s="15"/>
-    </row>
-    <row r="84" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O83" s="15"/>
+    </row>
+    <row r="84" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>382</v>
       </c>
@@ -3869,12 +4565,20 @@
         <v>1</v>
       </c>
       <c r="H84" s="9"/>
-      <c r="I84" s="17" t="s">
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="J84" s="15"/>
-    </row>
-    <row r="85" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="15"/>
+    </row>
+    <row r="85" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>103</v>
       </c>
@@ -3891,12 +4595,20 @@
         <v>1</v>
       </c>
       <c r="H85" s="9"/>
-      <c r="I85" s="17" t="s">
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J85" s="15"/>
-    </row>
-    <row r="86" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O85" s="15"/>
+    </row>
+    <row r="86" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>151</v>
       </c>
@@ -3913,12 +4625,20 @@
         <v>1</v>
       </c>
       <c r="H86" s="9"/>
-      <c r="I86" s="17" t="s">
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="J86" s="13"/>
-    </row>
-    <row r="87" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="13"/>
+    </row>
+    <row r="87" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>160</v>
       </c>
@@ -3935,12 +4655,20 @@
         <v>1</v>
       </c>
       <c r="H87" s="9"/>
-      <c r="I87" s="17" t="s">
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="J87" s="15"/>
-    </row>
-    <row r="88" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="15"/>
+    </row>
+    <row r="88" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>175</v>
       </c>
@@ -3957,12 +4685,20 @@
         <v>1</v>
       </c>
       <c r="H88" s="9"/>
-      <c r="I88" s="17" t="s">
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="J88" s="15"/>
-    </row>
-    <row r="89" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O88" s="15"/>
+    </row>
+    <row r="89" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>191</v>
       </c>
@@ -3979,12 +4715,20 @@
         <v>1</v>
       </c>
       <c r="H89" s="9"/>
-      <c r="I89" s="17" t="s">
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="J89" s="13"/>
-    </row>
-    <row r="90" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O89" s="13"/>
+    </row>
+    <row r="90" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>121</v>
       </c>
@@ -4001,12 +4745,20 @@
       <c r="H90" s="9">
         <v>1</v>
       </c>
-      <c r="I90" s="17" t="s">
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J90" s="13"/>
-    </row>
-    <row r="91" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="13"/>
+    </row>
+    <row r="91" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>157</v>
       </c>
@@ -4023,12 +4775,20 @@
       <c r="H91" s="9">
         <v>1</v>
       </c>
-      <c r="I91" s="17" t="s">
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J91" s="15"/>
-    </row>
-    <row r="92" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O91" s="15"/>
+    </row>
+    <row r="92" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>310</v>
       </c>
@@ -4045,12 +4805,20 @@
       <c r="H92" s="9">
         <v>1</v>
       </c>
-      <c r="I92" s="17" t="s">
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="J92" s="13"/>
-    </row>
-    <row r="93" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O92" s="13"/>
+    </row>
+    <row r="93" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>214</v>
       </c>
@@ -4067,12 +4835,20 @@
       <c r="H93" s="9">
         <v>1</v>
       </c>
-      <c r="I93" s="17" t="s">
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="J93" s="15"/>
-    </row>
-    <row r="94" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O93" s="15"/>
+    </row>
+    <row r="94" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>343</v>
       </c>
@@ -4089,12 +4865,20 @@
       <c r="H94" s="9">
         <v>1</v>
       </c>
-      <c r="I94" s="17" t="s">
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="J94" s="13"/>
-    </row>
-    <row r="95" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O94" s="13"/>
+    </row>
+    <row r="95" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>241</v>
       </c>
@@ -4111,12 +4895,20 @@
       <c r="H95" s="9">
         <v>1</v>
       </c>
-      <c r="I95" s="17" t="s">
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="J95" s="15"/>
-    </row>
-    <row r="96" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O95" s="15"/>
+    </row>
+    <row r="96" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>276</v>
       </c>
@@ -4133,12 +4925,20 @@
       <c r="H96" s="9">
         <v>1</v>
       </c>
-      <c r="I96" s="17" t="s">
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="J96" s="15"/>
-    </row>
-    <row r="97" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O96" s="15"/>
+    </row>
+    <row r="97" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>304</v>
       </c>
@@ -4155,12 +4955,20 @@
       <c r="H97" s="9">
         <v>1</v>
       </c>
-      <c r="I97" s="17" t="s">
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J97" s="15"/>
-    </row>
-    <row r="98" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O97" s="15"/>
+    </row>
+    <row r="98" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>136</v>
       </c>
@@ -4177,12 +4985,20 @@
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
-      <c r="I98" s="17" t="s">
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J98" s="15"/>
-    </row>
-    <row r="99" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O98" s="15"/>
+    </row>
+    <row r="99" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>137</v>
       </c>
@@ -4199,12 +5015,20 @@
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
-      <c r="I99" s="17" t="s">
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J99" s="15"/>
-    </row>
-    <row r="100" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O99" s="15"/>
+    </row>
+    <row r="100" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>146</v>
       </c>
@@ -4221,12 +5045,20 @@
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
-      <c r="I100" s="17" t="s">
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J100" s="13"/>
-    </row>
-    <row r="101" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O100" s="13"/>
+    </row>
+    <row r="101" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>192</v>
       </c>
@@ -4243,12 +5075,20 @@
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
-      <c r="I101" s="17" t="s">
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J101" s="13"/>
-    </row>
-    <row r="102" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O101" s="13"/>
+    </row>
+    <row r="102" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>204</v>
       </c>
@@ -4265,12 +5105,20 @@
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
-      <c r="I102" s="17" t="s">
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J102" s="13"/>
-    </row>
-    <row r="103" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O102" s="13"/>
+    </row>
+    <row r="103" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
         <v>263</v>
       </c>
@@ -4287,12 +5135,20 @@
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
-      <c r="I103" s="17" t="s">
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J103" s="13"/>
-    </row>
-    <row r="104" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O103" s="13"/>
+    </row>
+    <row r="104" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
         <v>314</v>
       </c>
@@ -4309,12 +5165,20 @@
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
-      <c r="I104" s="17" t="s">
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N104" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J104" s="13"/>
-    </row>
-    <row r="105" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O104" s="13"/>
+    </row>
+    <row r="105" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>341</v>
       </c>
@@ -4331,12 +5195,20 @@
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
-      <c r="I105" s="17" t="s">
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N105" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J105" s="13"/>
-    </row>
-    <row r="106" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O105" s="13"/>
+    </row>
+    <row r="106" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
         <v>368</v>
       </c>
@@ -4353,12 +5225,20 @@
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
-      <c r="I106" s="17" t="s">
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N106" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J106" s="13"/>
-    </row>
-    <row r="107" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O106" s="13"/>
+    </row>
+    <row r="107" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>177</v>
       </c>
@@ -4375,12 +5255,20 @@
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
-      <c r="I107" s="17" t="s">
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N107" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="J107" s="13"/>
-    </row>
-    <row r="108" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O107" s="13"/>
+    </row>
+    <row r="108" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>269</v>
       </c>
@@ -4397,12 +5285,20 @@
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
-      <c r="I108" s="17" t="s">
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N108" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="J108" s="15"/>
-    </row>
-    <row r="109" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O108" s="15"/>
+    </row>
+    <row r="109" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>274</v>
       </c>
@@ -4419,12 +5315,20 @@
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
-      <c r="I109" s="17" t="s">
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N109" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="J109" s="15"/>
-    </row>
-    <row r="110" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O109" s="15"/>
+    </row>
+    <row r="110" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>277</v>
       </c>
@@ -4441,12 +5345,20 @@
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
-      <c r="I110" s="17" t="s">
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N110" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="J110" s="15"/>
-    </row>
-    <row r="111" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O110" s="15"/>
+    </row>
+    <row r="111" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>292</v>
       </c>
@@ -4463,12 +5375,20 @@
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
-      <c r="I111" s="17" t="s">
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N111" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="J111" s="15"/>
-    </row>
-    <row r="112" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O111" s="15"/>
+    </row>
+    <row r="112" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
         <v>317</v>
       </c>
@@ -4485,12 +5405,20 @@
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
-      <c r="I112" s="17" t="s">
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N112" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="J112" s="13"/>
-    </row>
-    <row r="113" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O112" s="13"/>
+    </row>
+    <row r="113" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>320</v>
       </c>
@@ -4507,12 +5435,20 @@
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
-      <c r="I113" s="17" t="s">
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="14"/>
+      <c r="L113" s="14"/>
+      <c r="M113" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N113" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="J113" s="13"/>
-    </row>
-    <row r="114" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O113" s="13"/>
+    </row>
+    <row r="114" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9">
         <v>396</v>
       </c>
@@ -4529,12 +5465,20 @@
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
-      <c r="I114" s="17" t="s">
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N114" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J114" s="13"/>
-    </row>
-    <row r="115" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O114" s="13"/>
+    </row>
+    <row r="115" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9">
         <v>104</v>
       </c>
@@ -4551,12 +5495,20 @@
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
-      <c r="I115" s="17" t="s">
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N115" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J115" s="13"/>
-    </row>
-    <row r="116" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O115" s="13"/>
+    </row>
+    <row r="116" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>122</v>
       </c>
@@ -4573,12 +5525,20 @@
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
-      <c r="I116" s="17" t="s">
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N116" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="J116" s="13"/>
-    </row>
-    <row r="117" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O116" s="13"/>
+    </row>
+    <row r="117" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>123</v>
       </c>
@@ -4595,12 +5555,20 @@
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
-      <c r="I117" s="17" t="s">
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N117" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="J117" s="15"/>
-    </row>
-    <row r="118" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O117" s="15"/>
+    </row>
+    <row r="118" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>132</v>
       </c>
@@ -4617,12 +5585,20 @@
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
-      <c r="I118" s="17" t="s">
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="14"/>
+      <c r="L118" s="14"/>
+      <c r="M118" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N118" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J118" s="13"/>
-    </row>
-    <row r="119" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O118" s="13"/>
+    </row>
+    <row r="119" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>142</v>
       </c>
@@ -4639,12 +5615,20 @@
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
-      <c r="I119" s="17" t="s">
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="14"/>
+      <c r="L119" s="14"/>
+      <c r="M119" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N119" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="J119" s="13"/>
-    </row>
-    <row r="120" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O119" s="13"/>
+    </row>
+    <row r="120" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9">
         <v>185</v>
       </c>
@@ -4661,12 +5645,20 @@
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
-      <c r="I120" s="17" t="s">
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N120" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="J120" s="13"/>
-    </row>
-    <row r="121" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O120" s="13"/>
+    </row>
+    <row r="121" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>200</v>
       </c>
@@ -4683,12 +5675,20 @@
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
-      <c r="I121" s="17" t="s">
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="14"/>
+      <c r="M121" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N121" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J121" s="15"/>
-    </row>
-    <row r="122" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O121" s="15"/>
+    </row>
+    <row r="122" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
         <v>273</v>
       </c>
@@ -4705,12 +5705,20 @@
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
-      <c r="I122" s="17" t="s">
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N122" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J122" s="13"/>
-    </row>
-    <row r="123" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O122" s="13"/>
+    </row>
+    <row r="123" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
         <v>308</v>
       </c>
@@ -4727,12 +5735,20 @@
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
-      <c r="I123" s="17" t="s">
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N123" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J123" s="13"/>
-    </row>
-    <row r="124" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O123" s="13"/>
+    </row>
+    <row r="124" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9">
         <v>313</v>
       </c>
@@ -4749,12 +5765,20 @@
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
-      <c r="I124" s="17" t="s">
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
+      <c r="L124" s="14"/>
+      <c r="M124" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N124" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J124" s="13"/>
-    </row>
-    <row r="125" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O124" s="13"/>
+    </row>
+    <row r="125" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>357</v>
       </c>
@@ -4771,12 +5795,20 @@
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
-      <c r="I125" s="17" t="s">
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N125" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J125" s="15"/>
-    </row>
-    <row r="126" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O125" s="15"/>
+    </row>
+    <row r="126" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
         <v>388</v>
       </c>
@@ -4793,12 +5825,20 @@
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
-      <c r="I126" s="17" t="s">
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N126" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J126" s="13"/>
-    </row>
-    <row r="127" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O126" s="13"/>
+    </row>
+    <row r="127" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>394</v>
       </c>
@@ -4815,12 +5855,20 @@
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
-      <c r="I127" s="17" t="s">
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N127" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J127" s="13"/>
-    </row>
-    <row r="128" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O127" s="13"/>
+    </row>
+    <row r="128" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
         <v>101</v>
       </c>
@@ -4837,12 +5885,20 @@
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
-      <c r="I128" s="17" t="s">
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N128" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="J128" s="13"/>
-    </row>
-    <row r="129" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O128" s="13"/>
+    </row>
+    <row r="129" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>119</v>
       </c>
@@ -4859,12 +5915,20 @@
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
-      <c r="I129" s="17" t="s">
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N129" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="J129" s="13"/>
-    </row>
-    <row r="130" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O129" s="13"/>
+    </row>
+    <row r="130" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>124</v>
       </c>
@@ -4881,12 +5945,20 @@
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
-      <c r="I130" s="17" t="s">
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N130" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="J130" s="13"/>
-    </row>
-    <row r="131" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O130" s="13"/>
+    </row>
+    <row r="131" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
         <v>152</v>
       </c>
@@ -4903,12 +5975,20 @@
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
-      <c r="I131" s="17" t="s">
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N131" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="J131" s="15"/>
-    </row>
-    <row r="132" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O131" s="15"/>
+    </row>
+    <row r="132" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>159</v>
       </c>
@@ -4925,12 +6005,20 @@
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
-      <c r="I132" s="17" t="s">
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N132" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="J132" s="15"/>
-    </row>
-    <row r="133" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O132" s="15"/>
+    </row>
+    <row r="133" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
         <v>166</v>
       </c>
@@ -4947,12 +6035,20 @@
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
-      <c r="I133" s="17" t="s">
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N133" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J133" s="15"/>
-    </row>
-    <row r="134" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O133" s="15"/>
+    </row>
+    <row r="134" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
         <v>167</v>
       </c>
@@ -4969,12 +6065,20 @@
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
-      <c r="I134" s="17" t="s">
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N134" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="J134" s="15"/>
-    </row>
-    <row r="135" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O134" s="15"/>
+    </row>
+    <row r="135" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
         <v>196</v>
       </c>
@@ -4991,12 +6095,20 @@
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
-      <c r="I135" s="17" t="s">
+      <c r="I135" s="14"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="14"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N135" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="J135" s="13"/>
-    </row>
-    <row r="136" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O135" s="13"/>
+    </row>
+    <row r="136" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9">
         <v>209</v>
       </c>
@@ -5013,12 +6125,20 @@
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
-      <c r="I136" s="17" t="s">
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N136" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="J136" s="15"/>
-    </row>
-    <row r="137" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O136" s="15"/>
+    </row>
+    <row r="137" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
         <v>218</v>
       </c>
@@ -5035,12 +6155,20 @@
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
-      <c r="I137" s="17" t="s">
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="10">
+        <f t="shared" ref="M137:M200" si="3">SUM(I137:L137)</f>
+        <v>0</v>
+      </c>
+      <c r="N137" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J137" s="15"/>
-    </row>
-    <row r="138" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O137" s="15"/>
+    </row>
+    <row r="138" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
         <v>257</v>
       </c>
@@ -5057,12 +6185,20 @@
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
-      <c r="I138" s="17" t="s">
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N138" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="J138" s="13"/>
-    </row>
-    <row r="139" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O138" s="13"/>
+    </row>
+    <row r="139" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
         <v>287</v>
       </c>
@@ -5079,12 +6215,20 @@
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
-      <c r="I139" s="17" t="s">
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N139" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="J139" s="15"/>
-    </row>
-    <row r="140" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O139" s="15"/>
+    </row>
+    <row r="140" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
         <v>291</v>
       </c>
@@ -5101,12 +6245,20 @@
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
-      <c r="I140" s="17" t="s">
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N140" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="J140" s="15"/>
-    </row>
-    <row r="141" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O140" s="15"/>
+    </row>
+    <row r="141" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>239</v>
       </c>
@@ -5123,12 +6275,20 @@
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
-      <c r="I141" s="17" t="s">
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
+      <c r="L141" s="14"/>
+      <c r="M141" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N141" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="J141" s="15"/>
-    </row>
-    <row r="142" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O141" s="15"/>
+    </row>
+    <row r="142" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9">
         <v>303</v>
       </c>
@@ -5145,12 +6305,20 @@
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
-      <c r="I142" s="17" t="s">
+      <c r="I142" s="14"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="14"/>
+      <c r="L142" s="14"/>
+      <c r="M142" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N142" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="J142" s="13"/>
-    </row>
-    <row r="143" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O142" s="13"/>
+    </row>
+    <row r="143" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
         <v>309</v>
       </c>
@@ -5167,12 +6335,20 @@
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
-      <c r="I143" s="17" t="s">
+      <c r="I143" s="14"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
+      <c r="M143" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N143" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="J143" s="13"/>
-    </row>
-    <row r="144" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O143" s="13"/>
+    </row>
+    <row r="144" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
         <v>327</v>
       </c>
@@ -5189,12 +6365,20 @@
       </c>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
-      <c r="I144" s="17" t="s">
+      <c r="I144" s="14"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="14"/>
+      <c r="L144" s="14"/>
+      <c r="M144" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N144" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="J144" s="15"/>
-    </row>
-    <row r="145" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O144" s="15"/>
+    </row>
+    <row r="145" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
         <v>370</v>
       </c>
@@ -5211,12 +6395,20 @@
       </c>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
-      <c r="I145" s="17" t="s">
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N145" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="J145" s="15"/>
-    </row>
-    <row r="146" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O145" s="15"/>
+    </row>
+    <row r="146" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
         <v>390</v>
       </c>
@@ -5233,12 +6425,20 @@
       </c>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
-      <c r="I146" s="17" t="s">
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N146" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="J146" s="13"/>
-    </row>
-    <row r="147" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O146" s="13"/>
+    </row>
+    <row r="147" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
         <v>392</v>
       </c>
@@ -5255,12 +6455,20 @@
       </c>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
-      <c r="I147" s="17" t="s">
+      <c r="I147" s="14"/>
+      <c r="J147" s="14"/>
+      <c r="K147" s="14"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N147" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="J147" s="13"/>
-    </row>
-    <row r="148" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O147" s="13"/>
+    </row>
+    <row r="148" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
         <v>107</v>
       </c>
@@ -5277,12 +6485,20 @@
       </c>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
-      <c r="I148" s="17" t="s">
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="14"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N148" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="J148" s="15"/>
-    </row>
-    <row r="149" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O148" s="15"/>
+    </row>
+    <row r="149" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>180</v>
       </c>
@@ -5299,12 +6515,20 @@
       </c>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
-      <c r="I149" s="17" t="s">
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N149" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="J149" s="13"/>
-    </row>
-    <row r="150" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O149" s="13"/>
+    </row>
+    <row r="150" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
         <v>188</v>
       </c>
@@ -5321,12 +6545,20 @@
       </c>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
-      <c r="I150" s="17" t="s">
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N150" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J150" s="13"/>
-    </row>
-    <row r="151" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O150" s="13"/>
+    </row>
+    <row r="151" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9">
         <v>226</v>
       </c>
@@ -5343,12 +6575,20 @@
       </c>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
-      <c r="I151" s="17" t="s">
+      <c r="I151" s="14"/>
+      <c r="J151" s="14"/>
+      <c r="K151" s="14"/>
+      <c r="L151" s="14"/>
+      <c r="M151" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N151" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="J151" s="13"/>
-    </row>
-    <row r="152" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O151" s="13"/>
+    </row>
+    <row r="152" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9">
         <v>234</v>
       </c>
@@ -5365,12 +6605,20 @@
       </c>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
-      <c r="I152" s="17" t="s">
+      <c r="I152" s="14"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="14"/>
+      <c r="L152" s="14"/>
+      <c r="M152" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N152" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="J152" s="13"/>
-    </row>
-    <row r="153" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O152" s="13"/>
+    </row>
+    <row r="153" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
         <v>272</v>
       </c>
@@ -5387,12 +6635,20 @@
       </c>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
-      <c r="I153" s="17" t="s">
+      <c r="I153" s="14"/>
+      <c r="J153" s="14"/>
+      <c r="K153" s="14"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N153" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="J153" s="13"/>
-    </row>
-    <row r="154" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O153" s="13"/>
+    </row>
+    <row r="154" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9">
         <v>342</v>
       </c>
@@ -5409,12 +6665,20 @@
       </c>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
-      <c r="I154" s="17" t="s">
+      <c r="I154" s="14"/>
+      <c r="J154" s="14"/>
+      <c r="K154" s="14"/>
+      <c r="L154" s="14"/>
+      <c r="M154" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N154" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="J154" s="15"/>
-    </row>
-    <row r="155" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O154" s="15"/>
+    </row>
+    <row r="155" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14">
         <v>141</v>
       </c>
@@ -5431,12 +6695,20 @@
       </c>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
-      <c r="I155" s="17" t="s">
+      <c r="I155" s="14"/>
+      <c r="J155" s="14"/>
+      <c r="K155" s="14"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N155" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="J155" s="15"/>
-    </row>
-    <row r="156" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O155" s="15"/>
+    </row>
+    <row r="156" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9">
         <v>169</v>
       </c>
@@ -5453,12 +6725,20 @@
       </c>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
-      <c r="I156" s="17" t="s">
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N156" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="J156" s="15"/>
-    </row>
-    <row r="157" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O156" s="15"/>
+    </row>
+    <row r="157" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>217</v>
       </c>
@@ -5475,12 +6755,20 @@
         <v>1</v>
       </c>
       <c r="H157" s="9"/>
-      <c r="I157" s="17" t="s">
+      <c r="I157" s="14"/>
+      <c r="J157" s="14"/>
+      <c r="K157" s="14"/>
+      <c r="L157" s="14"/>
+      <c r="M157" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N157" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="J157" s="15"/>
-    </row>
-    <row r="158" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O157" s="15"/>
+    </row>
+    <row r="158" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9">
         <v>221</v>
       </c>
@@ -5497,12 +6785,20 @@
         <v>1</v>
       </c>
       <c r="H158" s="9"/>
-      <c r="I158" s="17" t="s">
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9"/>
+      <c r="M158" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N158" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="J158" s="15"/>
-    </row>
-    <row r="159" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O158" s="15"/>
+    </row>
+    <row r="159" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
         <v>222</v>
       </c>
@@ -5519,12 +6815,20 @@
         <v>1</v>
       </c>
       <c r="H159" s="9"/>
-      <c r="I159" s="17" t="s">
+      <c r="I159" s="14"/>
+      <c r="J159" s="14"/>
+      <c r="K159" s="14"/>
+      <c r="L159" s="14"/>
+      <c r="M159" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N159" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="J159" s="15"/>
-    </row>
-    <row r="160" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O159" s="15"/>
+    </row>
+    <row r="160" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
         <v>243</v>
       </c>
@@ -5541,12 +6845,20 @@
         <v>1</v>
       </c>
       <c r="H160" s="9"/>
-      <c r="I160" s="17" t="s">
+      <c r="I160" s="14"/>
+      <c r="J160" s="14"/>
+      <c r="K160" s="14"/>
+      <c r="L160" s="14"/>
+      <c r="M160" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N160" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="J160" s="13"/>
-    </row>
-    <row r="161" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O160" s="13"/>
+    </row>
+    <row r="161" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9">
         <v>258</v>
       </c>
@@ -5563,12 +6875,20 @@
         <v>1</v>
       </c>
       <c r="H161" s="9"/>
-      <c r="I161" s="17" t="s">
+      <c r="I161" s="14"/>
+      <c r="J161" s="14"/>
+      <c r="K161" s="14"/>
+      <c r="L161" s="14"/>
+      <c r="M161" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N161" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="J161" s="15"/>
-    </row>
-    <row r="162" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O161" s="15"/>
+    </row>
+    <row r="162" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9">
         <v>259</v>
       </c>
@@ -5585,12 +6905,20 @@
         <v>1</v>
       </c>
       <c r="H162" s="9"/>
-      <c r="I162" s="17" t="s">
+      <c r="I162" s="14"/>
+      <c r="J162" s="14"/>
+      <c r="K162" s="14"/>
+      <c r="L162" s="14"/>
+      <c r="M162" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N162" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="J162" s="15"/>
-    </row>
-    <row r="163" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O162" s="15"/>
+    </row>
+    <row r="163" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9">
         <v>261</v>
       </c>
@@ -5607,12 +6935,20 @@
         <v>1</v>
       </c>
       <c r="H163" s="9"/>
-      <c r="I163" s="17" t="s">
+      <c r="I163" s="14"/>
+      <c r="J163" s="14"/>
+      <c r="K163" s="14"/>
+      <c r="L163" s="14"/>
+      <c r="M163" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N163" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="J163" s="13"/>
-    </row>
-    <row r="164" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O163" s="13"/>
+    </row>
+    <row r="164" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9">
         <v>268</v>
       </c>
@@ -5629,12 +6965,20 @@
         <v>1</v>
       </c>
       <c r="H164" s="9"/>
-      <c r="I164" s="17" t="s">
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9"/>
+      <c r="M164" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N164" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="J164" s="13"/>
-    </row>
-    <row r="165" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O164" s="13"/>
+    </row>
+    <row r="165" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9">
         <v>270</v>
       </c>
@@ -5651,12 +6995,20 @@
         <v>1</v>
       </c>
       <c r="H165" s="9"/>
-      <c r="I165" s="17" t="s">
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9"/>
+      <c r="L165" s="9"/>
+      <c r="M165" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N165" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="J165" s="13"/>
-    </row>
-    <row r="166" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O165" s="13"/>
+    </row>
+    <row r="166" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9">
         <v>271</v>
       </c>
@@ -5673,12 +7025,20 @@
         <v>1</v>
       </c>
       <c r="H166" s="9"/>
-      <c r="I166" s="17" t="s">
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9"/>
+      <c r="L166" s="9"/>
+      <c r="M166" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N166" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="J166" s="13"/>
-    </row>
-    <row r="167" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O166" s="13"/>
+    </row>
+    <row r="167" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9">
         <v>277.5</v>
       </c>
@@ -5695,12 +7055,20 @@
         <v>1</v>
       </c>
       <c r="H167" s="9"/>
-      <c r="I167" s="17" t="s">
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="9"/>
+      <c r="L167" s="9"/>
+      <c r="M167" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N167" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="J167" s="15"/>
-    </row>
-    <row r="168" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O167" s="15"/>
+    </row>
+    <row r="168" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9">
         <v>288</v>
       </c>
@@ -5717,12 +7085,20 @@
         <v>1</v>
       </c>
       <c r="H168" s="9"/>
-      <c r="I168" s="17" t="s">
+      <c r="I168" s="14"/>
+      <c r="J168" s="14"/>
+      <c r="K168" s="14"/>
+      <c r="L168" s="14"/>
+      <c r="M168" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N168" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="J168" s="15"/>
-    </row>
-    <row r="169" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O168" s="15"/>
+    </row>
+    <row r="169" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9">
         <v>289</v>
       </c>
@@ -5739,12 +7115,20 @@
         <v>1</v>
       </c>
       <c r="H169" s="9"/>
-      <c r="I169" s="17" t="s">
+      <c r="I169" s="14"/>
+      <c r="J169" s="14"/>
+      <c r="K169" s="14"/>
+      <c r="L169" s="14"/>
+      <c r="M169" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N169" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="J169" s="13"/>
-    </row>
-    <row r="170" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O169" s="13"/>
+    </row>
+    <row r="170" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>316</v>
       </c>
@@ -5761,12 +7145,20 @@
         <v>1</v>
       </c>
       <c r="H170" s="9"/>
-      <c r="I170" s="17" t="s">
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="9"/>
+      <c r="L170" s="9"/>
+      <c r="M170" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N170" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="J170" s="15"/>
-    </row>
-    <row r="171" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O170" s="15"/>
+    </row>
+    <row r="171" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9">
         <v>325</v>
       </c>
@@ -5783,12 +7175,20 @@
         <v>1</v>
       </c>
       <c r="H171" s="9"/>
-      <c r="I171" s="17" t="s">
+      <c r="I171" s="14"/>
+      <c r="J171" s="14"/>
+      <c r="K171" s="14"/>
+      <c r="L171" s="14"/>
+      <c r="M171" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N171" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="J171" s="15"/>
-    </row>
-    <row r="172" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O171" s="15"/>
+    </row>
+    <row r="172" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9">
         <v>337</v>
       </c>
@@ -5805,12 +7205,20 @@
         <v>1</v>
       </c>
       <c r="H172" s="9"/>
-      <c r="I172" s="17" t="s">
+      <c r="I172" s="14"/>
+      <c r="J172" s="14"/>
+      <c r="K172" s="14"/>
+      <c r="L172" s="14"/>
+      <c r="M172" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N172" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="J172" s="13"/>
-    </row>
-    <row r="173" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O172" s="13"/>
+    </row>
+    <row r="173" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9">
         <v>340</v>
       </c>
@@ -5827,12 +7235,20 @@
         <v>1</v>
       </c>
       <c r="H173" s="9"/>
-      <c r="I173" s="17" t="s">
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="L173" s="9"/>
+      <c r="M173" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N173" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="J173" s="13"/>
-    </row>
-    <row r="174" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O173" s="13"/>
+    </row>
+    <row r="174" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9">
         <v>344</v>
       </c>
@@ -5849,12 +7265,20 @@
         <v>1</v>
       </c>
       <c r="H174" s="9"/>
-      <c r="I174" s="17" t="s">
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
+      <c r="L174" s="9"/>
+      <c r="M174" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N174" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="J174" s="15"/>
-    </row>
-    <row r="175" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O174" s="15"/>
+    </row>
+    <row r="175" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9">
         <v>108</v>
       </c>
@@ -5871,12 +7295,20 @@
         <v>1</v>
       </c>
       <c r="H175" s="9"/>
-      <c r="I175" s="17" t="s">
+      <c r="I175" s="14"/>
+      <c r="J175" s="14"/>
+      <c r="K175" s="14"/>
+      <c r="L175" s="14"/>
+      <c r="M175" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N175" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="J175" s="15"/>
-    </row>
-    <row r="176" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O175" s="15"/>
+    </row>
+    <row r="176" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9">
         <v>115</v>
       </c>
@@ -5893,12 +7325,20 @@
         <v>1</v>
       </c>
       <c r="H176" s="9"/>
-      <c r="I176" s="17" t="s">
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
+      <c r="L176" s="9"/>
+      <c r="M176" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N176" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="J176" s="15"/>
-    </row>
-    <row r="177" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O176" s="15"/>
+    </row>
+    <row r="177" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9">
         <v>154</v>
       </c>
@@ -5915,12 +7355,20 @@
         <v>1</v>
       </c>
       <c r="H177" s="9"/>
-      <c r="I177" s="17" t="s">
+      <c r="I177" s="14"/>
+      <c r="J177" s="14"/>
+      <c r="K177" s="14"/>
+      <c r="L177" s="14"/>
+      <c r="M177" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N177" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="J177" s="15"/>
-    </row>
-    <row r="178" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O177" s="15"/>
+    </row>
+    <row r="178" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9">
         <v>165</v>
       </c>
@@ -5937,12 +7385,20 @@
         <v>1</v>
       </c>
       <c r="H178" s="9"/>
-      <c r="I178" s="17" t="s">
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="9"/>
+      <c r="L178" s="9"/>
+      <c r="M178" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N178" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="J178" s="13"/>
-    </row>
-    <row r="179" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O178" s="13"/>
+    </row>
+    <row r="179" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9">
         <v>207</v>
       </c>
@@ -5959,12 +7415,20 @@
         <v>1</v>
       </c>
       <c r="H179" s="9"/>
-      <c r="I179" s="17" t="s">
+      <c r="I179" s="14"/>
+      <c r="J179" s="14"/>
+      <c r="K179" s="14"/>
+      <c r="L179" s="14"/>
+      <c r="M179" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N179" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="J179" s="13"/>
-    </row>
-    <row r="180" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O179" s="13"/>
+    </row>
+    <row r="180" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9">
         <v>252</v>
       </c>
@@ -5981,12 +7445,20 @@
         <v>1</v>
       </c>
       <c r="H180" s="9"/>
-      <c r="I180" s="17" t="s">
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
+      <c r="L180" s="9"/>
+      <c r="M180" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N180" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="J180" s="15"/>
-    </row>
-    <row r="181" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O180" s="15"/>
+    </row>
+    <row r="181" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9">
         <v>302</v>
       </c>
@@ -6003,12 +7475,20 @@
         <v>1</v>
       </c>
       <c r="H181" s="9"/>
-      <c r="I181" s="17" t="s">
+      <c r="I181" s="14"/>
+      <c r="J181" s="14"/>
+      <c r="K181" s="14"/>
+      <c r="L181" s="14"/>
+      <c r="M181" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N181" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="J181" s="13"/>
-    </row>
-    <row r="182" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O181" s="13"/>
+    </row>
+    <row r="182" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9">
         <v>312</v>
       </c>
@@ -6025,12 +7505,20 @@
         <v>1</v>
       </c>
       <c r="H182" s="9"/>
-      <c r="I182" s="17" t="s">
+      <c r="I182" s="14"/>
+      <c r="J182" s="14"/>
+      <c r="K182" s="14"/>
+      <c r="L182" s="14"/>
+      <c r="M182" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N182" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="J182" s="15"/>
-    </row>
-    <row r="183" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O182" s="15"/>
+    </row>
+    <row r="183" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9">
         <v>334</v>
       </c>
@@ -6047,12 +7535,20 @@
         <v>1</v>
       </c>
       <c r="H183" s="9"/>
-      <c r="I183" s="17" t="s">
+      <c r="I183" s="14"/>
+      <c r="J183" s="14"/>
+      <c r="K183" s="14"/>
+      <c r="L183" s="14"/>
+      <c r="M183" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N183" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="J183" s="13"/>
-    </row>
-    <row r="184" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O183" s="13"/>
+    </row>
+    <row r="184" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14">
         <v>380</v>
       </c>
@@ -6069,12 +7565,20 @@
       <c r="H184" s="9">
         <v>1</v>
       </c>
-      <c r="I184" s="17" t="s">
+      <c r="I184" s="14"/>
+      <c r="J184" s="14"/>
+      <c r="K184" s="14"/>
+      <c r="L184" s="14"/>
+      <c r="M184" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N184" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="J184" s="13"/>
-    </row>
-    <row r="185" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O184" s="13"/>
+    </row>
+    <row r="185" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14">
         <v>128</v>
       </c>
@@ -6091,12 +7595,20 @@
       <c r="H185" s="9">
         <v>1</v>
       </c>
-      <c r="I185" s="17" t="s">
+      <c r="I185" s="14"/>
+      <c r="J185" s="14"/>
+      <c r="K185" s="14"/>
+      <c r="L185" s="14"/>
+      <c r="M185" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N185" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="J185" s="15"/>
-    </row>
-    <row r="186" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O185" s="15"/>
+    </row>
+    <row r="186" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9">
         <v>129</v>
       </c>
@@ -6113,12 +7625,20 @@
       <c r="H186" s="9">
         <v>1</v>
       </c>
-      <c r="I186" s="17" t="s">
+      <c r="I186" s="14"/>
+      <c r="J186" s="14"/>
+      <c r="K186" s="14"/>
+      <c r="L186" s="14"/>
+      <c r="M186" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N186" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="J186" s="15"/>
-    </row>
-    <row r="187" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O186" s="15"/>
+    </row>
+    <row r="187" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9">
         <v>171</v>
       </c>
@@ -6135,12 +7655,20 @@
       <c r="H187" s="9">
         <v>1</v>
       </c>
-      <c r="I187" s="17" t="s">
+      <c r="I187" s="14"/>
+      <c r="J187" s="14"/>
+      <c r="K187" s="14"/>
+      <c r="L187" s="14"/>
+      <c r="M187" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N187" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="J187" s="15"/>
-    </row>
-    <row r="188" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O187" s="15"/>
+    </row>
+    <row r="188" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14">
         <v>183</v>
       </c>
@@ -6157,12 +7685,20 @@
       <c r="H188" s="9">
         <v>1</v>
       </c>
-      <c r="I188" s="17" t="s">
+      <c r="I188" s="14"/>
+      <c r="J188" s="14"/>
+      <c r="K188" s="14"/>
+      <c r="L188" s="14"/>
+      <c r="M188" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N188" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J188" s="15"/>
-    </row>
-    <row r="189" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O188" s="15"/>
+    </row>
+    <row r="189" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9">
         <v>236</v>
       </c>
@@ -6179,12 +7715,20 @@
       <c r="H189" s="9">
         <v>1</v>
       </c>
-      <c r="I189" s="17" t="s">
+      <c r="I189" s="14"/>
+      <c r="J189" s="14"/>
+      <c r="K189" s="14"/>
+      <c r="L189" s="14"/>
+      <c r="M189" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N189" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="J189" s="15"/>
-    </row>
-    <row r="190" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O189" s="15"/>
+    </row>
+    <row r="190" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
         <v>245</v>
       </c>
@@ -6201,12 +7745,20 @@
       <c r="H190" s="9">
         <v>1</v>
       </c>
-      <c r="I190" s="17" t="s">
+      <c r="I190" s="14"/>
+      <c r="J190" s="14"/>
+      <c r="K190" s="14"/>
+      <c r="L190" s="14"/>
+      <c r="M190" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N190" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="J190" s="15"/>
-    </row>
-    <row r="191" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O190" s="15"/>
+    </row>
+    <row r="191" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9">
         <v>305</v>
       </c>
@@ -6223,12 +7775,20 @@
       <c r="H191" s="9">
         <v>1</v>
       </c>
-      <c r="I191" s="17" t="s">
+      <c r="I191" s="14"/>
+      <c r="J191" s="14"/>
+      <c r="K191" s="14"/>
+      <c r="L191" s="14"/>
+      <c r="M191" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N191" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="J191" s="15"/>
-    </row>
-    <row r="192" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O191" s="15"/>
+    </row>
+    <row r="192" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9">
         <v>333</v>
       </c>
@@ -6245,12 +7805,20 @@
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
-      <c r="I192" s="17" t="s">
+      <c r="I192" s="14"/>
+      <c r="J192" s="14"/>
+      <c r="K192" s="14"/>
+      <c r="L192" s="14"/>
+      <c r="M192" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N192" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="J192" s="13"/>
-    </row>
-    <row r="193" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O192" s="13"/>
+    </row>
+    <row r="193" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9">
         <v>346</v>
       </c>
@@ -6267,12 +7835,20 @@
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
-      <c r="I193" s="17" t="s">
+      <c r="I193" s="14"/>
+      <c r="J193" s="14"/>
+      <c r="K193" s="14"/>
+      <c r="L193" s="14"/>
+      <c r="M193" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N193" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="J193" s="13"/>
-    </row>
-    <row r="194" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O193" s="13"/>
+    </row>
+    <row r="194" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9">
         <v>369</v>
       </c>
@@ -6289,12 +7865,20 @@
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
-      <c r="I194" s="17" t="s">
+      <c r="I194" s="14"/>
+      <c r="J194" s="14"/>
+      <c r="K194" s="14"/>
+      <c r="L194" s="14"/>
+      <c r="M194" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N194" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="J194" s="15"/>
-    </row>
-    <row r="195" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O194" s="15"/>
+    </row>
+    <row r="195" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9">
         <v>138</v>
       </c>
@@ -6311,12 +7895,20 @@
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
-      <c r="I195" s="17" t="s">
+      <c r="I195" s="14"/>
+      <c r="J195" s="14"/>
+      <c r="K195" s="14"/>
+      <c r="L195" s="14"/>
+      <c r="M195" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N195" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="J195" s="13"/>
-    </row>
-    <row r="196" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O195" s="13"/>
+    </row>
+    <row r="196" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
         <v>147</v>
       </c>
@@ -6333,12 +7925,20 @@
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
-      <c r="I196" s="17" t="s">
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="9"/>
+      <c r="M196" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N196" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J196" s="15"/>
-    </row>
-    <row r="197" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O196" s="15"/>
+    </row>
+    <row r="197" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9">
         <v>181</v>
       </c>
@@ -6355,12 +7955,20 @@
       <c r="F197" s="9"/>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
-      <c r="I197" s="17" t="s">
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
+      <c r="L197" s="9"/>
+      <c r="M197" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N197" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="J197" s="13"/>
-    </row>
-    <row r="198" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O197" s="13"/>
+    </row>
+    <row r="198" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9">
         <v>193</v>
       </c>
@@ -6377,12 +7985,20 @@
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
-      <c r="I198" s="17" t="s">
+      <c r="I198" s="14"/>
+      <c r="J198" s="14"/>
+      <c r="K198" s="14"/>
+      <c r="L198" s="14"/>
+      <c r="M198" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N198" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="J198" s="15"/>
-    </row>
-    <row r="199" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O198" s="15"/>
+    </row>
+    <row r="199" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9">
         <v>194</v>
       </c>
@@ -6399,12 +8015,20 @@
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
-      <c r="I199" s="17" t="s">
+      <c r="I199" s="9"/>
+      <c r="J199" s="9"/>
+      <c r="K199" s="9"/>
+      <c r="L199" s="9"/>
+      <c r="M199" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N199" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="J199" s="13"/>
-    </row>
-    <row r="200" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O199" s="13"/>
+    </row>
+    <row r="200" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9">
         <v>216</v>
       </c>
@@ -6421,12 +8045,20 @@
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
-      <c r="I200" s="17" t="s">
+      <c r="I200" s="14"/>
+      <c r="J200" s="14"/>
+      <c r="K200" s="14"/>
+      <c r="L200" s="14"/>
+      <c r="M200" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N200" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="J200" s="15"/>
-    </row>
-    <row r="201" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O200" s="15"/>
+    </row>
+    <row r="201" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9">
         <v>249</v>
       </c>
@@ -6443,12 +8075,20 @@
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
-      <c r="I201" s="17" t="s">
+      <c r="I201" s="9"/>
+      <c r="J201" s="9"/>
+      <c r="K201" s="9"/>
+      <c r="L201" s="9"/>
+      <c r="M201" s="10">
+        <f t="shared" ref="M201:M264" si="4">SUM(I201:L201)</f>
+        <v>0</v>
+      </c>
+      <c r="N201" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="J201" s="13"/>
-    </row>
-    <row r="202" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O201" s="13"/>
+    </row>
+    <row r="202" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9">
         <v>254</v>
       </c>
@@ -6465,12 +8105,20 @@
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
-      <c r="I202" s="17" t="s">
+      <c r="I202" s="14"/>
+      <c r="J202" s="14"/>
+      <c r="K202" s="14"/>
+      <c r="L202" s="14"/>
+      <c r="M202" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N202" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="J202" s="15"/>
-    </row>
-    <row r="203" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O202" s="15"/>
+    </row>
+    <row r="203" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9">
         <v>279</v>
       </c>
@@ -6487,12 +8135,20 @@
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
-      <c r="I203" s="17" t="s">
+      <c r="I203" s="9"/>
+      <c r="J203" s="9"/>
+      <c r="K203" s="9"/>
+      <c r="L203" s="9"/>
+      <c r="M203" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N203" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="J203" s="15"/>
-    </row>
-    <row r="204" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O203" s="15"/>
+    </row>
+    <row r="204" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9">
         <v>286</v>
       </c>
@@ -6509,12 +8165,20 @@
       <c r="F204" s="9"/>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
-      <c r="I204" s="17" t="s">
+      <c r="I204" s="9"/>
+      <c r="J204" s="9"/>
+      <c r="K204" s="9"/>
+      <c r="L204" s="9"/>
+      <c r="M204" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N204" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="J204" s="15"/>
-    </row>
-    <row r="205" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O204" s="15"/>
+    </row>
+    <row r="205" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9">
         <v>296</v>
       </c>
@@ -6531,12 +8195,20 @@
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
-      <c r="I205" s="17" t="s">
+      <c r="I205" s="14"/>
+      <c r="J205" s="14"/>
+      <c r="K205" s="14"/>
+      <c r="L205" s="14"/>
+      <c r="M205" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N205" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="J205" s="15"/>
-    </row>
-    <row r="206" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O205" s="15"/>
+    </row>
+    <row r="206" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9">
         <v>297</v>
       </c>
@@ -6553,12 +8225,20 @@
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
       <c r="H206" s="9"/>
-      <c r="I206" s="17" t="s">
+      <c r="I206" s="14"/>
+      <c r="J206" s="14"/>
+      <c r="K206" s="14"/>
+      <c r="L206" s="14"/>
+      <c r="M206" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N206" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="J206" s="15"/>
-    </row>
-    <row r="207" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O206" s="15"/>
+    </row>
+    <row r="207" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9">
         <v>306</v>
       </c>
@@ -6575,12 +8255,20 @@
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
       <c r="H207" s="9"/>
-      <c r="I207" s="17" t="s">
+      <c r="I207" s="9"/>
+      <c r="J207" s="9"/>
+      <c r="K207" s="9"/>
+      <c r="L207" s="9"/>
+      <c r="M207" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N207" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="J207" s="15"/>
-    </row>
-    <row r="208" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O207" s="15"/>
+    </row>
+    <row r="208" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9">
         <v>318</v>
       </c>
@@ -6597,12 +8285,20 @@
       <c r="F208" s="9"/>
       <c r="G208" s="9"/>
       <c r="H208" s="9"/>
-      <c r="I208" s="17" t="s">
+      <c r="I208" s="14"/>
+      <c r="J208" s="14"/>
+      <c r="K208" s="14"/>
+      <c r="L208" s="14"/>
+      <c r="M208" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N208" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="J208" s="15"/>
-    </row>
-    <row r="209" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O208" s="15"/>
+    </row>
+    <row r="209" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9">
         <v>324</v>
       </c>
@@ -6619,12 +8315,20 @@
       <c r="F209" s="9"/>
       <c r="G209" s="9"/>
       <c r="H209" s="9"/>
-      <c r="I209" s="17" t="s">
+      <c r="I209" s="9"/>
+      <c r="J209" s="9"/>
+      <c r="K209" s="9"/>
+      <c r="L209" s="9"/>
+      <c r="M209" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N209" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="J209" s="15"/>
-    </row>
-    <row r="210" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O209" s="15"/>
+    </row>
+    <row r="210" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9">
         <v>139</v>
       </c>
@@ -6641,12 +8345,20 @@
       <c r="F210" s="9"/>
       <c r="G210" s="9"/>
       <c r="H210" s="9"/>
-      <c r="I210" s="17" t="s">
+      <c r="I210" s="14"/>
+      <c r="J210" s="14"/>
+      <c r="K210" s="14"/>
+      <c r="L210" s="14"/>
+      <c r="M210" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N210" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="J210" s="15"/>
-    </row>
-    <row r="211" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O210" s="15"/>
+    </row>
+    <row r="211" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9">
         <v>338</v>
       </c>
@@ -6663,12 +8375,20 @@
       <c r="F211" s="9"/>
       <c r="G211" s="9"/>
       <c r="H211" s="9"/>
-      <c r="I211" s="17" t="s">
+      <c r="I211" s="9"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="9"/>
+      <c r="L211" s="9"/>
+      <c r="M211" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N211" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="J211" s="13"/>
-    </row>
-    <row r="212" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O211" s="13"/>
+    </row>
+    <row r="212" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="14">
         <v>133</v>
       </c>
@@ -6685,12 +8405,20 @@
       <c r="F212" s="9"/>
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
-      <c r="I212" s="17" t="s">
+      <c r="I212" s="14"/>
+      <c r="J212" s="14"/>
+      <c r="K212" s="14"/>
+      <c r="L212" s="14"/>
+      <c r="M212" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N212" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="J212" s="15"/>
-    </row>
-    <row r="213" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O212" s="15"/>
+    </row>
+    <row r="213" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9">
         <v>178</v>
       </c>
@@ -6707,12 +8435,20 @@
       <c r="F213" s="9"/>
       <c r="G213" s="9"/>
       <c r="H213" s="9"/>
-      <c r="I213" s="17" t="s">
+      <c r="I213" s="9"/>
+      <c r="J213" s="9"/>
+      <c r="K213" s="9"/>
+      <c r="L213" s="9"/>
+      <c r="M213" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N213" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="J213" s="13"/>
-    </row>
-    <row r="214" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O213" s="13"/>
+    </row>
+    <row r="214" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9">
         <v>202</v>
       </c>
@@ -6729,12 +8465,20 @@
       <c r="F214" s="9"/>
       <c r="G214" s="9"/>
       <c r="H214" s="9"/>
-      <c r="I214" s="17" t="s">
+      <c r="I214" s="14"/>
+      <c r="J214" s="14"/>
+      <c r="K214" s="14"/>
+      <c r="L214" s="14"/>
+      <c r="M214" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N214" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="J214" s="15"/>
-    </row>
-    <row r="215" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O214" s="15"/>
+    </row>
+    <row r="215" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9">
         <v>100</v>
       </c>
@@ -6751,12 +8495,20 @@
       <c r="F215" s="9"/>
       <c r="G215" s="9"/>
       <c r="H215" s="9"/>
-      <c r="I215" s="17" t="s">
+      <c r="I215" s="14"/>
+      <c r="J215" s="14"/>
+      <c r="K215" s="14"/>
+      <c r="L215" s="14"/>
+      <c r="M215" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N215" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="J215" s="15"/>
-    </row>
-    <row r="216" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O215" s="15"/>
+    </row>
+    <row r="216" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9">
         <v>295</v>
       </c>
@@ -6773,12 +8525,20 @@
       <c r="F216" s="9"/>
       <c r="G216" s="9"/>
       <c r="H216" s="9"/>
-      <c r="I216" s="17" t="s">
+      <c r="I216" s="14"/>
+      <c r="J216" s="14"/>
+      <c r="K216" s="14"/>
+      <c r="L216" s="14"/>
+      <c r="M216" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N216" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="J216" s="15"/>
-    </row>
-    <row r="217" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O216" s="15"/>
+    </row>
+    <row r="217" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9">
         <v>298</v>
       </c>
@@ -6795,12 +8555,20 @@
       <c r="F217" s="9"/>
       <c r="G217" s="9"/>
       <c r="H217" s="9"/>
-      <c r="I217" s="17" t="s">
+      <c r="I217" s="14"/>
+      <c r="J217" s="14"/>
+      <c r="K217" s="14"/>
+      <c r="L217" s="14"/>
+      <c r="M217" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N217" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="J217" s="15"/>
-    </row>
-    <row r="218" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O217" s="15"/>
+    </row>
+    <row r="218" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9">
         <v>300</v>
       </c>
@@ -6817,12 +8585,20 @@
       <c r="F218" s="9"/>
       <c r="G218" s="9"/>
       <c r="H218" s="9"/>
-      <c r="I218" s="17" t="s">
+      <c r="I218" s="14"/>
+      <c r="J218" s="14"/>
+      <c r="K218" s="14"/>
+      <c r="L218" s="14"/>
+      <c r="M218" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N218" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J218" s="15"/>
-    </row>
-    <row r="219" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O218" s="15"/>
+    </row>
+    <row r="219" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9">
         <v>326</v>
       </c>
@@ -6839,12 +8615,20 @@
       <c r="F219" s="9"/>
       <c r="G219" s="9"/>
       <c r="H219" s="9"/>
-      <c r="I219" s="17" t="s">
+      <c r="I219" s="9"/>
+      <c r="J219" s="9"/>
+      <c r="K219" s="9"/>
+      <c r="L219" s="9"/>
+      <c r="M219" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N219" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="J219" s="15"/>
-    </row>
-    <row r="220" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O219" s="15"/>
+    </row>
+    <row r="220" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9">
         <v>355</v>
       </c>
@@ -6861,12 +8645,20 @@
       <c r="F220" s="9"/>
       <c r="G220" s="9"/>
       <c r="H220" s="9"/>
-      <c r="I220" s="17" t="s">
+      <c r="I220" s="9"/>
+      <c r="J220" s="9"/>
+      <c r="K220" s="9"/>
+      <c r="L220" s="9"/>
+      <c r="M220" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N220" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="J220" s="15"/>
-    </row>
-    <row r="221" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O220" s="15"/>
+    </row>
+    <row r="221" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9">
         <v>365</v>
       </c>
@@ -6883,12 +8675,20 @@
       <c r="F221" s="9"/>
       <c r="G221" s="9"/>
       <c r="H221" s="9"/>
-      <c r="I221" s="17" t="s">
+      <c r="I221" s="14"/>
+      <c r="J221" s="14"/>
+      <c r="K221" s="14"/>
+      <c r="L221" s="14"/>
+      <c r="M221" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N221" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="J221" s="15"/>
-    </row>
-    <row r="222" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O221" s="15"/>
+    </row>
+    <row r="222" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="14">
         <v>391</v>
       </c>
@@ -6905,12 +8705,20 @@
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
       <c r="H222" s="16"/>
-      <c r="I222" s="17" t="s">
+      <c r="I222" s="14"/>
+      <c r="J222" s="14"/>
+      <c r="K222" s="14"/>
+      <c r="L222" s="14"/>
+      <c r="M222" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N222" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="J222" s="15"/>
-    </row>
-    <row r="223" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O222" s="15"/>
+    </row>
+    <row r="223" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9">
         <v>135</v>
       </c>
@@ -6927,12 +8735,20 @@
       <c r="F223" s="9"/>
       <c r="G223" s="9"/>
       <c r="H223" s="9"/>
-      <c r="I223" s="17" t="s">
+      <c r="I223" s="14"/>
+      <c r="J223" s="14"/>
+      <c r="K223" s="14"/>
+      <c r="L223" s="14"/>
+      <c r="M223" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N223" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="J223" s="15"/>
-    </row>
-    <row r="224" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O223" s="15"/>
+    </row>
+    <row r="224" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9">
         <v>237</v>
       </c>
@@ -6949,12 +8765,20 @@
       <c r="F224" s="9"/>
       <c r="G224" s="9"/>
       <c r="H224" s="9"/>
-      <c r="I224" s="17" t="s">
+      <c r="I224" s="14"/>
+      <c r="J224" s="14"/>
+      <c r="K224" s="14"/>
+      <c r="L224" s="14"/>
+      <c r="M224" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N224" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="J224" s="15"/>
-    </row>
-    <row r="225" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O224" s="15"/>
+    </row>
+    <row r="225" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9">
         <v>240</v>
       </c>
@@ -6971,12 +8795,20 @@
       <c r="F225" s="9"/>
       <c r="G225" s="9"/>
       <c r="H225" s="9"/>
-      <c r="I225" s="17" t="s">
+      <c r="I225" s="9"/>
+      <c r="J225" s="9"/>
+      <c r="K225" s="9"/>
+      <c r="L225" s="9"/>
+      <c r="M225" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N225" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="J225" s="13"/>
-    </row>
-    <row r="226" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O225" s="13"/>
+    </row>
+    <row r="226" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9">
         <v>250</v>
       </c>
@@ -6993,12 +8825,20 @@
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
       <c r="H226" s="9"/>
-      <c r="I226" s="17" t="s">
+      <c r="I226" s="14"/>
+      <c r="J226" s="14"/>
+      <c r="K226" s="14"/>
+      <c r="L226" s="14"/>
+      <c r="M226" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N226" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="J226" s="15"/>
-    </row>
-    <row r="227" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O226" s="15"/>
+    </row>
+    <row r="227" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9">
         <v>262</v>
       </c>
@@ -7015,12 +8855,20 @@
       <c r="F227" s="9"/>
       <c r="G227" s="9"/>
       <c r="H227" s="9"/>
-      <c r="I227" s="17" t="s">
+      <c r="I227" s="14"/>
+      <c r="J227" s="14"/>
+      <c r="K227" s="14"/>
+      <c r="L227" s="14"/>
+      <c r="M227" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N227" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="J227" s="15"/>
-    </row>
-    <row r="228" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O227" s="15"/>
+    </row>
+    <row r="228" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9">
         <v>353</v>
       </c>
@@ -7037,12 +8885,20 @@
       <c r="F228" s="9"/>
       <c r="G228" s="9"/>
       <c r="H228" s="9"/>
-      <c r="I228" s="17" t="s">
+      <c r="I228" s="9"/>
+      <c r="J228" s="9"/>
+      <c r="K228" s="9"/>
+      <c r="L228" s="9"/>
+      <c r="M228" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N228" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="J228" s="15"/>
-    </row>
-    <row r="229" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O228" s="15"/>
+    </row>
+    <row r="229" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9">
         <v>120</v>
       </c>
@@ -7059,12 +8915,20 @@
       <c r="F229" s="9"/>
       <c r="G229" s="9"/>
       <c r="H229" s="9"/>
-      <c r="I229" s="17" t="s">
+      <c r="I229" s="14"/>
+      <c r="J229" s="14"/>
+      <c r="K229" s="14"/>
+      <c r="L229" s="14"/>
+      <c r="M229" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N229" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="J229" s="15"/>
-    </row>
-    <row r="230" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O229" s="15"/>
+    </row>
+    <row r="230" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
         <v>184</v>
       </c>
@@ -7081,12 +8945,20 @@
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
       <c r="H230" s="9"/>
-      <c r="I230" s="17" t="s">
+      <c r="I230" s="14"/>
+      <c r="J230" s="14"/>
+      <c r="K230" s="14"/>
+      <c r="L230" s="14"/>
+      <c r="M230" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N230" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="J230" s="15"/>
-    </row>
-    <row r="231" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O230" s="15"/>
+    </row>
+    <row r="231" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9">
         <v>190</v>
       </c>
@@ -7103,12 +8975,20 @@
       <c r="F231" s="9"/>
       <c r="G231" s="9"/>
       <c r="H231" s="9"/>
-      <c r="I231" s="17" t="s">
+      <c r="I231" s="14"/>
+      <c r="J231" s="14"/>
+      <c r="K231" s="14"/>
+      <c r="L231" s="14"/>
+      <c r="M231" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N231" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="J231" s="15"/>
-    </row>
-    <row r="232" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O231" s="15"/>
+    </row>
+    <row r="232" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="14">
         <v>219</v>
       </c>
@@ -7125,12 +9005,20 @@
       <c r="F232" s="9"/>
       <c r="G232" s="9"/>
       <c r="H232" s="9"/>
-      <c r="I232" s="17" t="s">
+      <c r="I232" s="14"/>
+      <c r="J232" s="14"/>
+      <c r="K232" s="14"/>
+      <c r="L232" s="14"/>
+      <c r="M232" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N232" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="J232" s="13"/>
-    </row>
-    <row r="233" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O232" s="13"/>
+    </row>
+    <row r="233" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9">
         <v>282</v>
       </c>
@@ -7147,12 +9035,20 @@
       <c r="F233" s="9"/>
       <c r="G233" s="9"/>
       <c r="H233" s="9"/>
-      <c r="I233" s="17" t="s">
+      <c r="I233" s="14"/>
+      <c r="J233" s="14"/>
+      <c r="K233" s="14"/>
+      <c r="L233" s="14"/>
+      <c r="M233" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N233" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="J233" s="15"/>
-    </row>
-    <row r="234" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O233" s="15"/>
+    </row>
+    <row r="234" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9">
         <v>329</v>
       </c>
@@ -7169,12 +9065,20 @@
       <c r="F234" s="9"/>
       <c r="G234" s="9"/>
       <c r="H234" s="9"/>
-      <c r="I234" s="17" t="s">
+      <c r="I234" s="14"/>
+      <c r="J234" s="14"/>
+      <c r="K234" s="14"/>
+      <c r="L234" s="14"/>
+      <c r="M234" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N234" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="J234" s="13"/>
-    </row>
-    <row r="235" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O234" s="13"/>
+    </row>
+    <row r="235" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9">
         <v>330</v>
       </c>
@@ -7191,12 +9095,20 @@
       <c r="F235" s="9"/>
       <c r="G235" s="9"/>
       <c r="H235" s="9"/>
-      <c r="I235" s="17" t="s">
+      <c r="I235" s="14"/>
+      <c r="J235" s="14"/>
+      <c r="K235" s="14"/>
+      <c r="L235" s="14"/>
+      <c r="M235" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N235" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="J235" s="15"/>
-    </row>
-    <row r="236" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O235" s="15"/>
+    </row>
+    <row r="236" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="14">
         <v>172</v>
       </c>
@@ -7213,12 +9125,20 @@
       <c r="F236" s="9"/>
       <c r="G236" s="9"/>
       <c r="H236" s="9"/>
-      <c r="I236" s="17" t="s">
+      <c r="I236" s="14"/>
+      <c r="J236" s="14"/>
+      <c r="K236" s="14"/>
+      <c r="L236" s="14"/>
+      <c r="M236" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N236" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="J236" s="15"/>
-    </row>
-    <row r="237" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O236" s="15"/>
+    </row>
+    <row r="237" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9">
         <v>266</v>
       </c>
@@ -7235,12 +9155,20 @@
       <c r="F237" s="9"/>
       <c r="G237" s="9"/>
       <c r="H237" s="9"/>
-      <c r="I237" s="17" t="s">
+      <c r="I237" s="14"/>
+      <c r="J237" s="14"/>
+      <c r="K237" s="14"/>
+      <c r="L237" s="14"/>
+      <c r="M237" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N237" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="J237" s="15"/>
-    </row>
-    <row r="238" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O237" s="15"/>
+    </row>
+    <row r="238" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9">
         <v>275</v>
       </c>
@@ -7257,12 +9185,20 @@
       <c r="F238" s="9"/>
       <c r="G238" s="9"/>
       <c r="H238" s="9"/>
-      <c r="I238" s="17" t="s">
+      <c r="I238" s="14"/>
+      <c r="J238" s="14"/>
+      <c r="K238" s="14"/>
+      <c r="L238" s="14"/>
+      <c r="M238" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N238" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="J238" s="15"/>
-    </row>
-    <row r="239" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O238" s="15"/>
+    </row>
+    <row r="239" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>125</v>
       </c>
@@ -7279,12 +9215,20 @@
       <c r="F239" s="9"/>
       <c r="G239" s="9"/>
       <c r="H239" s="9"/>
-      <c r="I239" s="17" t="s">
+      <c r="I239" s="14"/>
+      <c r="J239" s="14"/>
+      <c r="K239" s="14"/>
+      <c r="L239" s="14"/>
+      <c r="M239" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N239" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="J239" s="15"/>
-    </row>
-    <row r="240" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O239" s="15"/>
+    </row>
+    <row r="240" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>195</v>
       </c>
@@ -7301,12 +9245,20 @@
       <c r="F240" s="9"/>
       <c r="G240" s="9"/>
       <c r="H240" s="9"/>
-      <c r="I240" s="17" t="s">
+      <c r="I240" s="14"/>
+      <c r="J240" s="14"/>
+      <c r="K240" s="14"/>
+      <c r="L240" s="14"/>
+      <c r="M240" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N240" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="J240" s="15"/>
-    </row>
-    <row r="241" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O240" s="15"/>
+    </row>
+    <row r="241" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9">
         <v>113</v>
       </c>
@@ -7323,12 +9275,20 @@
       <c r="F241" s="9"/>
       <c r="G241" s="9"/>
       <c r="H241" s="9"/>
-      <c r="I241" s="17" t="s">
+      <c r="I241" s="14"/>
+      <c r="J241" s="14"/>
+      <c r="K241" s="14"/>
+      <c r="L241" s="14"/>
+      <c r="M241" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N241" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="J241" s="15"/>
-    </row>
-    <row r="242" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O241" s="15"/>
+    </row>
+    <row r="242" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9">
         <v>198</v>
       </c>
@@ -7345,12 +9305,20 @@
       <c r="F242" s="9"/>
       <c r="G242" s="9"/>
       <c r="H242" s="9"/>
-      <c r="I242" s="17" t="s">
+      <c r="I242" s="14"/>
+      <c r="J242" s="14"/>
+      <c r="K242" s="14"/>
+      <c r="L242" s="14"/>
+      <c r="M242" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N242" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="J242" s="13"/>
-    </row>
-    <row r="243" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O242" s="13"/>
+    </row>
+    <row r="243" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>224</v>
       </c>
@@ -7367,12 +9335,20 @@
       <c r="F243" s="9"/>
       <c r="G243" s="9"/>
       <c r="H243" s="9"/>
-      <c r="I243" s="17" t="s">
+      <c r="I243" s="14"/>
+      <c r="J243" s="14"/>
+      <c r="K243" s="14"/>
+      <c r="L243" s="14"/>
+      <c r="M243" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N243" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="J243" s="15"/>
-    </row>
-    <row r="244" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O243" s="15"/>
+    </row>
+    <row r="244" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9">
         <v>116</v>
       </c>
@@ -7389,12 +9365,20 @@
       <c r="F244" s="9"/>
       <c r="G244" s="9"/>
       <c r="H244" s="9"/>
-      <c r="I244" s="17" t="s">
+      <c r="I244" s="9"/>
+      <c r="J244" s="9"/>
+      <c r="K244" s="9"/>
+      <c r="L244" s="9"/>
+      <c r="M244" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N244" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="J244" s="15"/>
-    </row>
-    <row r="245" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O244" s="15"/>
+    </row>
+    <row r="245" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9">
         <v>256</v>
       </c>
@@ -7411,12 +9395,20 @@
       </c>
       <c r="G245" s="9"/>
       <c r="H245" s="9"/>
-      <c r="I245" s="17" t="s">
+      <c r="I245" s="14"/>
+      <c r="J245" s="14"/>
+      <c r="K245" s="14"/>
+      <c r="L245" s="14"/>
+      <c r="M245" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N245" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="J245" s="15"/>
-    </row>
-    <row r="246" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O245" s="15"/>
+    </row>
+    <row r="246" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9">
         <v>362</v>
       </c>
@@ -7433,12 +9425,20 @@
       </c>
       <c r="G246" s="9"/>
       <c r="H246" s="9"/>
-      <c r="I246" s="17" t="s">
+      <c r="I246" s="14"/>
+      <c r="J246" s="14"/>
+      <c r="K246" s="14"/>
+      <c r="L246" s="14"/>
+      <c r="M246" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N246" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="J246" s="15"/>
-    </row>
-    <row r="247" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O246" s="15"/>
+    </row>
+    <row r="247" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9">
         <v>372</v>
       </c>
@@ -7455,12 +9455,20 @@
       </c>
       <c r="G247" s="9"/>
       <c r="H247" s="9"/>
-      <c r="I247" s="17" t="s">
+      <c r="I247" s="14"/>
+      <c r="J247" s="14"/>
+      <c r="K247" s="14"/>
+      <c r="L247" s="14"/>
+      <c r="M247" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N247" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="J247" s="15"/>
-    </row>
-    <row r="248" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O247" s="15"/>
+    </row>
+    <row r="248" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9">
         <v>373</v>
       </c>
@@ -7477,12 +9485,20 @@
       </c>
       <c r="G248" s="9"/>
       <c r="H248" s="9"/>
-      <c r="I248" s="17" t="s">
+      <c r="I248" s="14"/>
+      <c r="J248" s="14"/>
+      <c r="K248" s="14"/>
+      <c r="L248" s="14"/>
+      <c r="M248" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N248" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="J248" s="15"/>
-    </row>
-    <row r="249" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O248" s="15"/>
+    </row>
+    <row r="249" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="14">
         <v>148</v>
       </c>
@@ -7499,12 +9515,20 @@
       </c>
       <c r="G249" s="9"/>
       <c r="H249" s="9"/>
-      <c r="I249" s="17" t="s">
+      <c r="I249" s="14"/>
+      <c r="J249" s="14"/>
+      <c r="K249" s="14"/>
+      <c r="L249" s="14"/>
+      <c r="M249" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N249" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="J249" s="15"/>
-    </row>
-    <row r="250" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O249" s="15"/>
+    </row>
+    <row r="250" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9">
         <v>170</v>
       </c>
@@ -7521,12 +9545,20 @@
       </c>
       <c r="G250" s="9"/>
       <c r="H250" s="9"/>
-      <c r="I250" s="17" t="s">
+      <c r="I250" s="14"/>
+      <c r="J250" s="14"/>
+      <c r="K250" s="14"/>
+      <c r="L250" s="14"/>
+      <c r="M250" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N250" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="J250" s="15"/>
-    </row>
-    <row r="251" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O250" s="15"/>
+    </row>
+    <row r="251" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9">
         <v>173</v>
       </c>
@@ -7543,12 +9575,20 @@
       </c>
       <c r="G251" s="9"/>
       <c r="H251" s="9"/>
-      <c r="I251" s="17" t="s">
+      <c r="I251" s="14"/>
+      <c r="J251" s="14"/>
+      <c r="K251" s="14"/>
+      <c r="L251" s="14"/>
+      <c r="M251" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N251" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="J251" s="15"/>
-    </row>
-    <row r="252" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O251" s="15"/>
+    </row>
+    <row r="252" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9">
         <v>199</v>
       </c>
@@ -7565,12 +9605,20 @@
       </c>
       <c r="G252" s="9"/>
       <c r="H252" s="9"/>
-      <c r="I252" s="17" t="s">
+      <c r="I252" s="14"/>
+      <c r="J252" s="14"/>
+      <c r="K252" s="14"/>
+      <c r="L252" s="14"/>
+      <c r="M252" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N252" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="J252" s="15"/>
-    </row>
-    <row r="253" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O252" s="15"/>
+    </row>
+    <row r="253" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9">
         <v>208</v>
       </c>
@@ -7587,12 +9635,20 @@
       </c>
       <c r="G253" s="9"/>
       <c r="H253" s="9"/>
-      <c r="I253" s="17" t="s">
+      <c r="I253" s="14"/>
+      <c r="J253" s="14"/>
+      <c r="K253" s="14"/>
+      <c r="L253" s="14"/>
+      <c r="M253" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N253" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="J253" s="15"/>
-    </row>
-    <row r="254" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O253" s="15"/>
+    </row>
+    <row r="254" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9">
         <v>253</v>
       </c>
@@ -7609,12 +9665,20 @@
       </c>
       <c r="G254" s="9"/>
       <c r="H254" s="9"/>
-      <c r="I254" s="17" t="s">
+      <c r="I254" s="14"/>
+      <c r="J254" s="14"/>
+      <c r="K254" s="14"/>
+      <c r="L254" s="14"/>
+      <c r="M254" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N254" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="J254" s="13"/>
-    </row>
-    <row r="255" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O254" s="13"/>
+    </row>
+    <row r="255" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9">
         <v>293</v>
       </c>
@@ -7631,12 +9695,20 @@
       </c>
       <c r="G255" s="9"/>
       <c r="H255" s="9"/>
-      <c r="I255" s="17" t="s">
+      <c r="I255" s="14"/>
+      <c r="J255" s="14"/>
+      <c r="K255" s="14"/>
+      <c r="L255" s="14"/>
+      <c r="M255" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N255" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="J255" s="15"/>
-    </row>
-    <row r="256" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O255" s="15"/>
+    </row>
+    <row r="256" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9">
         <v>336</v>
       </c>
@@ -7653,12 +9725,20 @@
       </c>
       <c r="G256" s="9"/>
       <c r="H256" s="9"/>
-      <c r="I256" s="17" t="s">
+      <c r="I256" s="14"/>
+      <c r="J256" s="14"/>
+      <c r="K256" s="14"/>
+      <c r="L256" s="14"/>
+      <c r="M256" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N256" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="J256" s="15"/>
-    </row>
-    <row r="257" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O256" s="15"/>
+    </row>
+    <row r="257" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="14">
         <v>389</v>
       </c>
@@ -7675,12 +9755,20 @@
       </c>
       <c r="G257" s="16"/>
       <c r="H257" s="9"/>
-      <c r="I257" s="17" t="s">
+      <c r="I257" s="14"/>
+      <c r="J257" s="14"/>
+      <c r="K257" s="14"/>
+      <c r="L257" s="14"/>
+      <c r="M257" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N257" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="J257" s="15"/>
-    </row>
-    <row r="258" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O257" s="15"/>
+    </row>
+    <row r="258" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9">
         <v>106</v>
       </c>
@@ -7697,12 +9785,20 @@
       </c>
       <c r="G258" s="9"/>
       <c r="H258" s="9"/>
-      <c r="I258" s="17" t="s">
+      <c r="I258" s="9"/>
+      <c r="J258" s="9"/>
+      <c r="K258" s="9"/>
+      <c r="L258" s="9"/>
+      <c r="M258" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N258" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="J258" s="15"/>
-    </row>
-    <row r="259" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O258" s="15"/>
+    </row>
+    <row r="259" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9">
         <v>158</v>
       </c>
@@ -7719,12 +9815,20 @@
       </c>
       <c r="G259" s="9"/>
       <c r="H259" s="9"/>
-      <c r="I259" s="17" t="s">
+      <c r="I259" s="14"/>
+      <c r="J259" s="14"/>
+      <c r="K259" s="14"/>
+      <c r="L259" s="14"/>
+      <c r="M259" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N259" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="J259" s="15"/>
-    </row>
-    <row r="260" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O259" s="15"/>
+    </row>
+    <row r="260" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9">
         <v>168</v>
       </c>
@@ -7741,12 +9845,20 @@
       </c>
       <c r="G260" s="9"/>
       <c r="H260" s="9"/>
-      <c r="I260" s="17" t="s">
+      <c r="I260" s="14"/>
+      <c r="J260" s="14"/>
+      <c r="K260" s="14"/>
+      <c r="L260" s="14"/>
+      <c r="M260" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N260" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="J260" s="15"/>
-    </row>
-    <row r="261" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O260" s="15"/>
+    </row>
+    <row r="261" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9">
         <v>335</v>
       </c>
@@ -7763,12 +9875,20 @@
       </c>
       <c r="G261" s="9"/>
       <c r="H261" s="9"/>
-      <c r="I261" s="17" t="s">
+      <c r="I261" s="14"/>
+      <c r="J261" s="14"/>
+      <c r="K261" s="14"/>
+      <c r="L261" s="14"/>
+      <c r="M261" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N261" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="J261" s="15"/>
-    </row>
-    <row r="262" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O261" s="15"/>
+    </row>
+    <row r="262" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="9">
         <v>114</v>
       </c>
@@ -7785,12 +9905,20 @@
       </c>
       <c r="G262" s="9"/>
       <c r="H262" s="9"/>
-      <c r="I262" s="17" t="s">
+      <c r="I262" s="14"/>
+      <c r="J262" s="14"/>
+      <c r="K262" s="14"/>
+      <c r="L262" s="14"/>
+      <c r="M262" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N262" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="J262" s="15"/>
-    </row>
-    <row r="263" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O262" s="15"/>
+    </row>
+    <row r="263" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="14">
         <v>127</v>
       </c>
@@ -7807,12 +9935,20 @@
       </c>
       <c r="G263" s="9"/>
       <c r="H263" s="9"/>
-      <c r="I263" s="17" t="s">
+      <c r="I263" s="14"/>
+      <c r="J263" s="14"/>
+      <c r="K263" s="14"/>
+      <c r="L263" s="14"/>
+      <c r="M263" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N263" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="J263" s="15"/>
-    </row>
-    <row r="264" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O263" s="15"/>
+    </row>
+    <row r="264" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9">
         <v>130</v>
       </c>
@@ -7829,12 +9965,20 @@
       </c>
       <c r="G264" s="9"/>
       <c r="H264" s="9"/>
-      <c r="I264" s="17" t="s">
+      <c r="I264" s="9"/>
+      <c r="J264" s="9"/>
+      <c r="K264" s="9"/>
+      <c r="L264" s="9"/>
+      <c r="M264" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N264" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="J264" s="15"/>
-    </row>
-    <row r="265" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O264" s="15"/>
+    </row>
+    <row r="265" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9">
         <v>307</v>
       </c>
@@ -7851,12 +9995,20 @@
       </c>
       <c r="G265" s="9"/>
       <c r="H265" s="9"/>
-      <c r="I265" s="17" t="s">
+      <c r="I265" s="14"/>
+      <c r="J265" s="14"/>
+      <c r="K265" s="14"/>
+      <c r="L265" s="14"/>
+      <c r="M265" s="10">
+        <f t="shared" ref="M265:M303" si="5">SUM(I265:L265)</f>
+        <v>0</v>
+      </c>
+      <c r="N265" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="J265" s="15"/>
-    </row>
-    <row r="266" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O265" s="15"/>
+    </row>
+    <row r="266" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="9">
         <v>347</v>
       </c>
@@ -7873,12 +10025,20 @@
       </c>
       <c r="G266" s="9"/>
       <c r="H266" s="9"/>
-      <c r="I266" s="17" t="s">
+      <c r="I266" s="14"/>
+      <c r="J266" s="14"/>
+      <c r="K266" s="14"/>
+      <c r="L266" s="14"/>
+      <c r="M266" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N266" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="J266" s="15"/>
-    </row>
-    <row r="267" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O266" s="15"/>
+    </row>
+    <row r="267" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="14">
         <v>233</v>
       </c>
@@ -7895,12 +10055,20 @@
       </c>
       <c r="G267" s="9"/>
       <c r="H267" s="9"/>
-      <c r="I267" s="17" t="s">
+      <c r="I267" s="9"/>
+      <c r="J267" s="9"/>
+      <c r="K267" s="9"/>
+      <c r="L267" s="9"/>
+      <c r="M267" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N267" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="J267" s="15"/>
-    </row>
-    <row r="268" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O267" s="15"/>
+    </row>
+    <row r="268" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="14">
         <v>179</v>
       </c>
@@ -7917,12 +10085,20 @@
       </c>
       <c r="G268" s="9"/>
       <c r="H268" s="9"/>
-      <c r="I268" s="17" t="s">
+      <c r="I268" s="14"/>
+      <c r="J268" s="14"/>
+      <c r="K268" s="14"/>
+      <c r="L268" s="14"/>
+      <c r="M268" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N268" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="J268" s="15"/>
-    </row>
-    <row r="269" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O268" s="15"/>
+    </row>
+    <row r="269" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9">
         <v>339</v>
       </c>
@@ -7939,12 +10115,20 @@
         <v>1</v>
       </c>
       <c r="H269" s="9"/>
-      <c r="I269" s="17" t="s">
+      <c r="I269" s="14"/>
+      <c r="J269" s="14"/>
+      <c r="K269" s="14"/>
+      <c r="L269" s="14"/>
+      <c r="M269" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N269" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="J269" s="15"/>
-    </row>
-    <row r="270" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O269" s="15"/>
+    </row>
+    <row r="270" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9">
         <v>351</v>
       </c>
@@ -7961,12 +10145,20 @@
         <v>1</v>
       </c>
       <c r="H270" s="9"/>
-      <c r="I270" s="17" t="s">
+      <c r="I270" s="14"/>
+      <c r="J270" s="14"/>
+      <c r="K270" s="14"/>
+      <c r="L270" s="14"/>
+      <c r="M270" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N270" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="J270" s="15"/>
-    </row>
-    <row r="271" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O270" s="15"/>
+    </row>
+    <row r="271" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="9">
         <v>363</v>
       </c>
@@ -7983,12 +10175,20 @@
         <v>1</v>
       </c>
       <c r="H271" s="9"/>
-      <c r="I271" s="17" t="s">
+      <c r="I271" s="9"/>
+      <c r="J271" s="9"/>
+      <c r="K271" s="9"/>
+      <c r="L271" s="9"/>
+      <c r="M271" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N271" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="J271" s="13"/>
-    </row>
-    <row r="272" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O271" s="13"/>
+    </row>
+    <row r="272" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9">
         <v>385</v>
       </c>
@@ -8005,12 +10205,20 @@
         <v>1</v>
       </c>
       <c r="H272" s="9"/>
-      <c r="I272" s="17" t="s">
+      <c r="I272" s="9"/>
+      <c r="J272" s="9"/>
+      <c r="K272" s="9"/>
+      <c r="L272" s="9"/>
+      <c r="M272" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N272" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="J272" s="15"/>
-    </row>
-    <row r="273" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O272" s="15"/>
+    </row>
+    <row r="273" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9">
         <v>105</v>
       </c>
@@ -8027,12 +10235,20 @@
         <v>1</v>
       </c>
       <c r="H273" s="9"/>
-      <c r="I273" s="17" t="s">
+      <c r="I273" s="14"/>
+      <c r="J273" s="14"/>
+      <c r="K273" s="14"/>
+      <c r="L273" s="14"/>
+      <c r="M273" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N273" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="J273" s="15"/>
-    </row>
-    <row r="274" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O273" s="15"/>
+    </row>
+    <row r="274" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="9">
         <v>112</v>
       </c>
@@ -8049,12 +10265,20 @@
         <v>1</v>
       </c>
       <c r="H274" s="9"/>
-      <c r="I274" s="17" t="s">
+      <c r="I274" s="14"/>
+      <c r="J274" s="14"/>
+      <c r="K274" s="14"/>
+      <c r="L274" s="14"/>
+      <c r="M274" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N274" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="J274" s="13"/>
-    </row>
-    <row r="275" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O274" s="13"/>
+    </row>
+    <row r="275" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9">
         <v>189</v>
       </c>
@@ -8071,12 +10295,20 @@
         <v>1</v>
       </c>
       <c r="H275" s="9"/>
-      <c r="I275" s="17" t="s">
+      <c r="I275" s="14"/>
+      <c r="J275" s="14"/>
+      <c r="K275" s="14"/>
+      <c r="L275" s="14"/>
+      <c r="M275" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N275" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="J275" s="15"/>
-    </row>
-    <row r="276" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O275" s="15"/>
+    </row>
+    <row r="276" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9">
         <v>225</v>
       </c>
@@ -8093,12 +10325,20 @@
         <v>1</v>
       </c>
       <c r="H276" s="9"/>
-      <c r="I276" s="17" t="s">
+      <c r="I276" s="9"/>
+      <c r="J276" s="9"/>
+      <c r="K276" s="9"/>
+      <c r="L276" s="9"/>
+      <c r="M276" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N276" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="J276" s="15"/>
-    </row>
-    <row r="277" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O276" s="15"/>
+    </row>
+    <row r="277" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9">
         <v>281</v>
       </c>
@@ -8115,12 +10355,20 @@
         <v>1</v>
       </c>
       <c r="H277" s="9"/>
-      <c r="I277" s="17" t="s">
+      <c r="I277" s="9"/>
+      <c r="J277" s="9"/>
+      <c r="K277" s="9"/>
+      <c r="L277" s="9"/>
+      <c r="M277" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N277" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="J277" s="15"/>
-    </row>
-    <row r="278" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O277" s="15"/>
+    </row>
+    <row r="278" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9">
         <v>290</v>
       </c>
@@ -8137,12 +10385,20 @@
         <v>1</v>
       </c>
       <c r="H278" s="9"/>
-      <c r="I278" s="17" t="s">
+      <c r="I278" s="14"/>
+      <c r="J278" s="14"/>
+      <c r="K278" s="14"/>
+      <c r="L278" s="14"/>
+      <c r="M278" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N278" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="J278" s="13"/>
-    </row>
-    <row r="279" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O278" s="13"/>
+    </row>
+    <row r="279" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9">
         <v>311</v>
       </c>
@@ -8159,12 +10415,20 @@
         <v>1</v>
       </c>
       <c r="H279" s="9"/>
-      <c r="I279" s="17" t="s">
+      <c r="I279" s="14"/>
+      <c r="J279" s="14"/>
+      <c r="K279" s="14"/>
+      <c r="L279" s="14"/>
+      <c r="M279" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N279" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="J279" s="13"/>
-    </row>
-    <row r="280" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O279" s="13"/>
+    </row>
+    <row r="280" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="9">
         <v>321</v>
       </c>
@@ -8181,12 +10445,20 @@
         <v>1</v>
       </c>
       <c r="H280" s="9"/>
-      <c r="I280" s="17" t="s">
+      <c r="I280" s="14"/>
+      <c r="J280" s="14"/>
+      <c r="K280" s="14"/>
+      <c r="L280" s="14"/>
+      <c r="M280" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N280" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="J280" s="15"/>
-    </row>
-    <row r="281" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O280" s="15"/>
+    </row>
+    <row r="281" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9">
         <v>332</v>
       </c>
@@ -8203,12 +10475,20 @@
         <v>1</v>
       </c>
       <c r="H281" s="9"/>
-      <c r="I281" s="17" t="s">
+      <c r="I281" s="14"/>
+      <c r="J281" s="14"/>
+      <c r="K281" s="14"/>
+      <c r="L281" s="14"/>
+      <c r="M281" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N281" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="J281" s="15"/>
-    </row>
-    <row r="282" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O281" s="15"/>
+    </row>
+    <row r="282" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9">
         <v>354</v>
       </c>
@@ -8225,12 +10505,20 @@
         <v>1</v>
       </c>
       <c r="H282" s="9"/>
-      <c r="I282" s="17" t="s">
+      <c r="I282" s="9"/>
+      <c r="J282" s="9"/>
+      <c r="K282" s="9"/>
+      <c r="L282" s="9"/>
+      <c r="M282" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N282" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="J282" s="15"/>
-    </row>
-    <row r="283" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O282" s="15"/>
+    </row>
+    <row r="283" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9">
         <v>383</v>
       </c>
@@ -8247,12 +10535,20 @@
         <v>1</v>
       </c>
       <c r="H283" s="9"/>
-      <c r="I283" s="17" t="s">
+      <c r="I283" s="14"/>
+      <c r="J283" s="14"/>
+      <c r="K283" s="14"/>
+      <c r="L283" s="14"/>
+      <c r="M283" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N283" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="J283" s="13"/>
-    </row>
-    <row r="284" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O283" s="13"/>
+    </row>
+    <row r="284" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9">
         <v>393</v>
       </c>
@@ -8269,12 +10565,20 @@
         <v>1</v>
       </c>
       <c r="H284" s="9"/>
-      <c r="I284" s="17" t="s">
+      <c r="I284" s="14"/>
+      <c r="J284" s="14"/>
+      <c r="K284" s="14"/>
+      <c r="L284" s="14"/>
+      <c r="M284" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N284" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="J284" s="13"/>
-    </row>
-    <row r="285" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O284" s="13"/>
+    </row>
+    <row r="285" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9">
         <v>143</v>
       </c>
@@ -8291,12 +10595,20 @@
         <v>1</v>
       </c>
       <c r="H285" s="9"/>
-      <c r="I285" s="17" t="s">
+      <c r="I285" s="14"/>
+      <c r="J285" s="14"/>
+      <c r="K285" s="14"/>
+      <c r="L285" s="14"/>
+      <c r="M285" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N285" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="J285" s="15"/>
-    </row>
-    <row r="286" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O285" s="15"/>
+    </row>
+    <row r="286" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9">
         <v>203</v>
       </c>
@@ -8313,12 +10625,20 @@
         <v>1</v>
       </c>
       <c r="H286" s="9"/>
-      <c r="I286" s="17" t="s">
+      <c r="I286" s="14"/>
+      <c r="J286" s="14"/>
+      <c r="K286" s="14"/>
+      <c r="L286" s="14"/>
+      <c r="M286" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N286" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="J286" s="15"/>
-    </row>
-    <row r="287" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O286" s="15"/>
+    </row>
+    <row r="287" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="14">
         <v>220</v>
       </c>
@@ -8335,12 +10655,20 @@
         <v>1</v>
       </c>
       <c r="H287" s="9"/>
-      <c r="I287" s="17" t="s">
+      <c r="I287" s="14"/>
+      <c r="J287" s="14"/>
+      <c r="K287" s="14"/>
+      <c r="L287" s="14"/>
+      <c r="M287" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N287" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="J287" s="15"/>
-    </row>
-    <row r="288" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O287" s="15"/>
+    </row>
+    <row r="288" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="14">
         <v>230</v>
       </c>
@@ -8357,12 +10685,20 @@
         <v>1</v>
       </c>
       <c r="H288" s="9"/>
-      <c r="I288" s="17" t="s">
+      <c r="I288" s="14"/>
+      <c r="J288" s="14"/>
+      <c r="K288" s="14"/>
+      <c r="L288" s="14"/>
+      <c r="M288" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N288" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="J288" s="15"/>
-    </row>
-    <row r="289" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O288" s="15"/>
+    </row>
+    <row r="289" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9">
         <v>361</v>
       </c>
@@ -8379,12 +10715,20 @@
         <v>1</v>
       </c>
       <c r="H289" s="9"/>
-      <c r="I289" s="17" t="s">
+      <c r="I289" s="14"/>
+      <c r="J289" s="14"/>
+      <c r="K289" s="14"/>
+      <c r="L289" s="14"/>
+      <c r="M289" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N289" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="J289" s="13"/>
-    </row>
-    <row r="290" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O289" s="13"/>
+    </row>
+    <row r="290" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="14">
         <v>399</v>
       </c>
@@ -8401,12 +10745,20 @@
         <v>1</v>
       </c>
       <c r="H290" s="16"/>
-      <c r="I290" s="17" t="s">
+      <c r="I290" s="14"/>
+      <c r="J290" s="14"/>
+      <c r="K290" s="14"/>
+      <c r="L290" s="14"/>
+      <c r="M290" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N290" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="J290" s="15"/>
-    </row>
-    <row r="291" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O290" s="15"/>
+    </row>
+    <row r="291" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9">
         <v>176</v>
       </c>
@@ -8423,12 +10775,20 @@
         <v>1</v>
       </c>
       <c r="H291" s="9"/>
-      <c r="I291" s="17" t="s">
+      <c r="I291" s="14"/>
+      <c r="J291" s="14"/>
+      <c r="K291" s="14"/>
+      <c r="L291" s="14"/>
+      <c r="M291" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N291" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="J291" s="15"/>
-    </row>
-    <row r="292" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O291" s="15"/>
+    </row>
+    <row r="292" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9">
         <v>301</v>
       </c>
@@ -8445,12 +10805,20 @@
         <v>1</v>
       </c>
       <c r="H292" s="9"/>
-      <c r="I292" s="17" t="s">
+      <c r="I292" s="14"/>
+      <c r="J292" s="14"/>
+      <c r="K292" s="14"/>
+      <c r="L292" s="14"/>
+      <c r="M292" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N292" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="J292" s="15"/>
-    </row>
-    <row r="293" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O292" s="15"/>
+    </row>
+    <row r="293" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9">
         <v>205</v>
       </c>
@@ -8467,12 +10835,20 @@
         <v>1</v>
       </c>
       <c r="H293" s="9"/>
-      <c r="I293" s="17" t="s">
+      <c r="I293" s="14"/>
+      <c r="J293" s="14"/>
+      <c r="K293" s="14"/>
+      <c r="L293" s="14"/>
+      <c r="M293" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N293" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="J293" s="15"/>
-    </row>
-    <row r="294" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O293" s="15"/>
+    </row>
+    <row r="294" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="14">
         <v>229</v>
       </c>
@@ -8489,12 +10865,20 @@
         <v>1</v>
       </c>
       <c r="H294" s="9"/>
-      <c r="I294" s="17" t="s">
+      <c r="I294" s="14"/>
+      <c r="J294" s="14"/>
+      <c r="K294" s="14"/>
+      <c r="L294" s="14"/>
+      <c r="M294" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N294" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="J294" s="15"/>
-    </row>
-    <row r="295" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O294" s="15"/>
+    </row>
+    <row r="295" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9">
         <v>319</v>
       </c>
@@ -8511,12 +10895,20 @@
         <v>1</v>
       </c>
       <c r="H295" s="9"/>
-      <c r="I295" s="17" t="s">
+      <c r="I295" s="14"/>
+      <c r="J295" s="14"/>
+      <c r="K295" s="14"/>
+      <c r="L295" s="14"/>
+      <c r="M295" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N295" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="J295" s="15"/>
-    </row>
-    <row r="296" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O295" s="15"/>
+    </row>
+    <row r="296" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9">
         <v>144</v>
       </c>
@@ -8533,12 +10925,20 @@
       <c r="H296" s="9">
         <v>1</v>
       </c>
-      <c r="I296" s="17" t="s">
+      <c r="I296" s="14"/>
+      <c r="J296" s="14"/>
+      <c r="K296" s="14"/>
+      <c r="L296" s="14"/>
+      <c r="M296" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N296" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="J296" s="15"/>
-    </row>
-    <row r="297" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O296" s="15"/>
+    </row>
+    <row r="297" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="14">
         <v>155</v>
       </c>
@@ -8555,12 +10955,20 @@
       <c r="H297" s="9">
         <v>1</v>
       </c>
-      <c r="I297" s="17" t="s">
+      <c r="I297" s="14"/>
+      <c r="J297" s="14"/>
+      <c r="K297" s="14"/>
+      <c r="L297" s="14"/>
+      <c r="M297" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N297" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="J297" s="15"/>
-    </row>
-    <row r="298" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O297" s="15"/>
+    </row>
+    <row r="298" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="9">
         <v>283</v>
       </c>
@@ -8577,12 +10985,20 @@
       <c r="H298" s="9">
         <v>1</v>
       </c>
-      <c r="I298" s="17" t="s">
+      <c r="I298" s="14"/>
+      <c r="J298" s="14"/>
+      <c r="K298" s="14"/>
+      <c r="L298" s="14"/>
+      <c r="M298" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N298" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="J298" s="15"/>
-    </row>
-    <row r="299" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O298" s="15"/>
+    </row>
+    <row r="299" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9">
         <v>131</v>
       </c>
@@ -8599,12 +11015,20 @@
       <c r="H299" s="9">
         <v>1</v>
       </c>
-      <c r="I299" s="17" t="s">
+      <c r="I299" s="14"/>
+      <c r="J299" s="14"/>
+      <c r="K299" s="14"/>
+      <c r="L299" s="14"/>
+      <c r="M299" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N299" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="J299" s="15"/>
-    </row>
-    <row r="300" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O299" s="15"/>
+    </row>
+    <row r="300" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="14">
         <v>150</v>
       </c>
@@ -8621,12 +11045,20 @@
       <c r="H300" s="9">
         <v>1</v>
       </c>
-      <c r="I300" s="17" t="s">
+      <c r="I300" s="14"/>
+      <c r="J300" s="14"/>
+      <c r="K300" s="14"/>
+      <c r="L300" s="14"/>
+      <c r="M300" s="10">
+        <f>SUM(I300:L300)</f>
+        <v>0</v>
+      </c>
+      <c r="N300" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="J300" s="15"/>
-    </row>
-    <row r="301" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O300" s="15"/>
+    </row>
+    <row r="301" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="14">
         <v>153</v>
       </c>
@@ -8643,12 +11075,20 @@
       <c r="H301" s="9">
         <v>1</v>
       </c>
-      <c r="I301" s="17" t="s">
+      <c r="I301" s="14"/>
+      <c r="J301" s="14"/>
+      <c r="K301" s="14"/>
+      <c r="L301" s="14"/>
+      <c r="M301" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N301" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="J301" s="15"/>
-    </row>
-    <row r="302" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O301" s="15"/>
+    </row>
+    <row r="302" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="14">
         <v>278</v>
       </c>
@@ -8665,12 +11105,20 @@
       <c r="H302" s="9">
         <v>1</v>
       </c>
-      <c r="I302" s="17" t="s">
+      <c r="I302" s="14"/>
+      <c r="J302" s="14"/>
+      <c r="K302" s="14"/>
+      <c r="L302" s="14"/>
+      <c r="M302" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N302" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="J302" s="15"/>
-    </row>
-    <row r="303" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O302" s="15"/>
+    </row>
+    <row r="303" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="14">
         <v>398</v>
       </c>
@@ -8687,12 +11135,20 @@
       <c r="H303" s="9">
         <v>1</v>
       </c>
-      <c r="I303" s="17" t="s">
+      <c r="I303" s="14"/>
+      <c r="J303" s="14"/>
+      <c r="K303" s="14"/>
+      <c r="L303" s="14"/>
+      <c r="M303" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N303" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="J303" s="15"/>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O303" s="15"/>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -9139,10 +11595,10 @@
     <sortCondition descending="1" ref="H4:H303"/>
     <sortCondition ref="B4:B303"/>
   </sortState>
-  <mergeCells count="10">
+  <mergeCells count="15">
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="D1:D2"/>
@@ -9150,43 +11606,48 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J7">
+  <conditionalFormatting sqref="O7">
     <cfRule type="cellIs" dxfId="66" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+  <conditionalFormatting sqref="O12">
     <cfRule type="cellIs" dxfId="65" priority="108" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J31">
+  <conditionalFormatting sqref="O24:O31">
     <cfRule type="cellIs" dxfId="64" priority="107" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:J43">
+  <conditionalFormatting sqref="O35:O43">
     <cfRule type="cellIs" dxfId="63" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J119:J121 J123:J126">
+  <conditionalFormatting sqref="O119:O121 O123:O126">
     <cfRule type="cellIs" dxfId="62" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J122">
+  <conditionalFormatting sqref="O122">
     <cfRule type="cellIs" dxfId="61" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J127">
+  <conditionalFormatting sqref="O127">
     <cfRule type="cellIs" dxfId="60" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J119:J127">
+  <conditionalFormatting sqref="O119:O127">
     <cfRule type="cellIs" dxfId="59" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -9201,32 +11662,32 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37 A4:A9 A12:A27 A267:A303 A177:A202 A65:A151 I4:I303 B4:B303">
+  <conditionalFormatting sqref="A37 A4:A9 A12:A27 A267:A303 A177:A202 A65:A151 N4:N303 B4:B303">
     <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
+  <conditionalFormatting sqref="N1">
     <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A11 I4 I7:I11">
+  <conditionalFormatting sqref="A4:A11 N4 N7:N11">
     <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A24 I17:I24">
+  <conditionalFormatting sqref="A17:A24 N17:N24">
     <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A36 I28:I36">
+  <conditionalFormatting sqref="A28:A36 N28:N36">
     <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:A64 I38:I64">
+  <conditionalFormatting sqref="A38:A64 N38:N64">
     <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -9246,17 +11707,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I176 I152:I167 I203:I262">
+  <conditionalFormatting sqref="N176 N152:N167 N203:N262">
     <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I157:I164">
+  <conditionalFormatting sqref="N157:N164">
     <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I168:I175">
+  <conditionalFormatting sqref="N168:N175">
     <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -9271,7 +11732,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
+  <conditionalFormatting sqref="N6">
     <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -9281,511 +11742,511 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I263">
+  <conditionalFormatting sqref="N263">
     <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I264">
+  <conditionalFormatting sqref="N264">
     <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I265">
+  <conditionalFormatting sqref="N265">
     <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I266">
+  <conditionalFormatting sqref="N266">
     <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I267">
+  <conditionalFormatting sqref="N267">
     <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I268">
+  <conditionalFormatting sqref="N268">
     <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I269">
+  <conditionalFormatting sqref="N269">
     <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I270">
+  <conditionalFormatting sqref="N270">
     <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I271">
+  <conditionalFormatting sqref="N271">
     <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I272">
+  <conditionalFormatting sqref="N272">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I273">
+  <conditionalFormatting sqref="N273">
     <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I274">
+  <conditionalFormatting sqref="N274">
     <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I275">
+  <conditionalFormatting sqref="N275">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I276">
+  <conditionalFormatting sqref="N276">
     <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I277">
+  <conditionalFormatting sqref="N277">
     <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I278">
+  <conditionalFormatting sqref="N278">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I279">
+  <conditionalFormatting sqref="N279">
     <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I280">
+  <conditionalFormatting sqref="N280">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I281">
+  <conditionalFormatting sqref="N281">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I282">
+  <conditionalFormatting sqref="N282">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I283">
+  <conditionalFormatting sqref="N283">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I284">
+  <conditionalFormatting sqref="N284">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I285">
+  <conditionalFormatting sqref="N285">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I286">
+  <conditionalFormatting sqref="N286">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I287">
+  <conditionalFormatting sqref="N287">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I288">
+  <conditionalFormatting sqref="N288">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I289">
+  <conditionalFormatting sqref="N289">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I290">
+  <conditionalFormatting sqref="N290">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I291">
+  <conditionalFormatting sqref="N291">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I292">
+  <conditionalFormatting sqref="N292">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I293">
+  <conditionalFormatting sqref="N293">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I294">
+  <conditionalFormatting sqref="N294">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I295">
+  <conditionalFormatting sqref="N295">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I296">
+  <conditionalFormatting sqref="N296">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I297">
+  <conditionalFormatting sqref="N297">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I298">
+  <conditionalFormatting sqref="N298">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I299">
+  <conditionalFormatting sqref="N299">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I300">
+  <conditionalFormatting sqref="N300">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I301">
+  <conditionalFormatting sqref="N301">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I302">
+  <conditionalFormatting sqref="N302">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I303">
+  <conditionalFormatting sqref="N303">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I214" r:id="rId1"/>
-    <hyperlink ref="I111" r:id="rId2"/>
-    <hyperlink ref="I217" r:id="rId3"/>
-    <hyperlink ref="I108" r:id="rId4"/>
-    <hyperlink ref="I174" r:id="rId5"/>
-    <hyperlink ref="I107" r:id="rId6"/>
-    <hyperlink ref="I192" r:id="rId7"/>
-    <hyperlink ref="I193" r:id="rId8"/>
-    <hyperlink ref="I34" r:id="rId9"/>
-    <hyperlink ref="I171" r:id="rId10"/>
-    <hyperlink ref="I52" r:id="rId11"/>
-    <hyperlink ref="I191" r:id="rId12"/>
-    <hyperlink ref="I255" r:id="rId13"/>
-    <hyperlink ref="I133" r:id="rId14"/>
-    <hyperlink ref="I121" r:id="rId15"/>
-    <hyperlink ref="I68" r:id="rId16"/>
-    <hyperlink ref="I202" r:id="rId17"/>
-    <hyperlink ref="I151" r:id="rId18"/>
-    <hyperlink ref="I172" r:id="rId19"/>
-    <hyperlink ref="I246" r:id="rId20"/>
-    <hyperlink ref="I102" r:id="rId21"/>
-    <hyperlink ref="I61" r:id="rId22"/>
-    <hyperlink ref="I251" r:id="rId23"/>
-    <hyperlink ref="I274" r:id="rId24"/>
-    <hyperlink ref="I231" r:id="rId25"/>
-    <hyperlink ref="I113" r:id="rId26"/>
-    <hyperlink ref="I181" r:id="rId27"/>
-    <hyperlink ref="I204" r:id="rId28"/>
-    <hyperlink ref="I269" r:id="rId29"/>
-    <hyperlink ref="I208" r:id="rId30"/>
-    <hyperlink ref="I86" r:id="rId31"/>
-    <hyperlink ref="I109" r:id="rId32"/>
-    <hyperlink ref="I150" r:id="rId33"/>
-    <hyperlink ref="I180" r:id="rId34"/>
-    <hyperlink ref="I53" r:id="rId35"/>
-    <hyperlink ref="I62" r:id="rId36"/>
-    <hyperlink ref="I70" r:id="rId37"/>
-    <hyperlink ref="I120" r:id="rId38"/>
-    <hyperlink ref="I7" r:id="rId39"/>
-    <hyperlink ref="I282" r:id="rId40"/>
-    <hyperlink ref="I27" r:id="rId41"/>
-    <hyperlink ref="I112" r:id="rId42"/>
-    <hyperlink ref="I95" r:id="rId43"/>
-    <hyperlink ref="I295" r:id="rId44"/>
-    <hyperlink ref="I149" r:id="rId45"/>
-    <hyperlink ref="I203" r:id="rId46"/>
-    <hyperlink ref="I100" r:id="rId47"/>
-    <hyperlink ref="I177" r:id="rId48"/>
-    <hyperlink ref="I298" r:id="rId49"/>
-    <hyperlink ref="I141" r:id="rId50"/>
-    <hyperlink ref="I256" r:id="rId51"/>
-    <hyperlink ref="I87" r:id="rId52"/>
-    <hyperlink ref="I16" r:id="rId53"/>
-    <hyperlink ref="I281" r:id="rId54"/>
-    <hyperlink ref="I32" r:id="rId55"/>
-    <hyperlink ref="I137" r:id="rId56"/>
-    <hyperlink ref="I33" r:id="rId57"/>
-    <hyperlink ref="I201" r:id="rId58"/>
-    <hyperlink ref="I233" r:id="rId59"/>
-    <hyperlink ref="I200" r:id="rId60"/>
-    <hyperlink ref="I292" r:id="rId61"/>
-    <hyperlink ref="I198" r:id="rId62"/>
-    <hyperlink ref="I179" r:id="rId63"/>
-    <hyperlink ref="I93" r:id="rId64"/>
-    <hyperlink ref="I135" r:id="rId65"/>
-    <hyperlink ref="I226" r:id="rId66"/>
-    <hyperlink ref="I76" r:id="rId67"/>
-    <hyperlink ref="I289" r:id="rId68"/>
-    <hyperlink ref="I211" r:id="rId69"/>
-    <hyperlink ref="I152" r:id="rId70"/>
-    <hyperlink ref="I59" r:id="rId71"/>
-    <hyperlink ref="I75" r:id="rId72"/>
-    <hyperlink ref="I275" r:id="rId73"/>
-    <hyperlink ref="I205" r:id="rId74"/>
-    <hyperlink ref="I63" r:id="rId75"/>
-    <hyperlink ref="I99" r:id="rId76"/>
-    <hyperlink ref="I272" r:id="rId77"/>
-    <hyperlink ref="I136" r:id="rId78"/>
-    <hyperlink ref="I148" r:id="rId79"/>
-    <hyperlink ref="I266" r:id="rId80"/>
-    <hyperlink ref="I73" r:id="rId81"/>
-    <hyperlink ref="I98" r:id="rId82"/>
-    <hyperlink ref="I178" r:id="rId83"/>
-    <hyperlink ref="I296" r:id="rId84"/>
-    <hyperlink ref="I225" r:id="rId85"/>
-    <hyperlink ref="I284" r:id="rId86"/>
-    <hyperlink ref="I197" r:id="rId87"/>
-    <hyperlink ref="I22" r:id="rId88"/>
-    <hyperlink ref="I293" r:id="rId89"/>
-    <hyperlink ref="I160" r:id="rId90"/>
-    <hyperlink ref="I254" r:id="rId91"/>
-    <hyperlink ref="I270" r:id="rId92"/>
-    <hyperlink ref="I195" r:id="rId93"/>
-    <hyperlink ref="I134" r:id="rId94"/>
-    <hyperlink ref="I131" r:id="rId95"/>
-    <hyperlink ref="I90" r:id="rId96"/>
-    <hyperlink ref="I186" r:id="rId97"/>
-    <hyperlink ref="I132" r:id="rId98"/>
-    <hyperlink ref="I158" r:id="rId99"/>
-    <hyperlink ref="I159" r:id="rId100"/>
-    <hyperlink ref="I215" r:id="rId101"/>
-    <hyperlink ref="I223" r:id="rId102"/>
-    <hyperlink ref="I31" r:id="rId103"/>
-    <hyperlink ref="I235" r:id="rId104"/>
-    <hyperlink ref="I238" r:id="rId105"/>
-    <hyperlink ref="I260" r:id="rId106"/>
-    <hyperlink ref="I85" r:id="rId107"/>
-    <hyperlink ref="I189" r:id="rId108"/>
-    <hyperlink ref="I115" r:id="rId109"/>
-    <hyperlink ref="I199" r:id="rId110"/>
-    <hyperlink ref="I261" r:id="rId111"/>
-    <hyperlink ref="I264" r:id="rId112"/>
-    <hyperlink ref="I242" r:id="rId113"/>
-    <hyperlink ref="I280" r:id="rId114"/>
-    <hyperlink ref="I183" r:id="rId115"/>
-    <hyperlink ref="I72" r:id="rId116"/>
-    <hyperlink ref="I118" r:id="rId117"/>
-    <hyperlink ref="I276" r:id="rId118"/>
-    <hyperlink ref="I213" r:id="rId119"/>
-    <hyperlink ref="I285" r:id="rId120"/>
-    <hyperlink ref="I299" r:id="rId121"/>
-    <hyperlink ref="I252" r:id="rId122"/>
-    <hyperlink ref="I55" r:id="rId123"/>
-    <hyperlink ref="I175" r:id="rId124"/>
-    <hyperlink ref="I291" r:id="rId125"/>
-    <hyperlink ref="I210" r:id="rId126"/>
-    <hyperlink ref="I128" r:id="rId127"/>
-    <hyperlink ref="I237" r:id="rId128"/>
-    <hyperlink ref="I117" r:id="rId129"/>
-    <hyperlink ref="I224" r:id="rId130"/>
-    <hyperlink ref="I130" r:id="rId131"/>
-    <hyperlink ref="I273" r:id="rId132"/>
-    <hyperlink ref="I116" r:id="rId133"/>
-    <hyperlink ref="I129" r:id="rId134"/>
-    <hyperlink ref="I229" r:id="rId135"/>
-    <hyperlink ref="I234" r:id="rId136"/>
-    <hyperlink ref="I286" r:id="rId137"/>
-    <hyperlink ref="I253" r:id="rId138"/>
-    <hyperlink ref="I265" r:id="rId139"/>
-    <hyperlink ref="I58" r:id="rId140"/>
-    <hyperlink ref="I250" r:id="rId141"/>
-    <hyperlink ref="I259" r:id="rId142"/>
-    <hyperlink ref="I47" r:id="rId143"/>
-    <hyperlink ref="I69" r:id="rId144"/>
-    <hyperlink ref="I24" r:id="rId145"/>
-    <hyperlink ref="I39" r:id="rId146"/>
-    <hyperlink ref="I119" r:id="rId147"/>
-    <hyperlink ref="I167" r:id="rId148"/>
-    <hyperlink ref="I37" r:id="rId149"/>
-    <hyperlink ref="I166" r:id="rId150"/>
-    <hyperlink ref="I21" r:id="rId151"/>
-    <hyperlink ref="I163" r:id="rId152"/>
-    <hyperlink ref="I60" r:id="rId153"/>
-    <hyperlink ref="I122" r:id="rId154"/>
-    <hyperlink ref="I216" r:id="rId155"/>
-    <hyperlink ref="I49" r:id="rId156"/>
-    <hyperlink ref="I6" r:id="rId157"/>
-    <hyperlink ref="I5" r:id="rId158"/>
-    <hyperlink ref="I4" r:id="rId159"/>
-    <hyperlink ref="I161" r:id="rId160"/>
-    <hyperlink ref="I9" r:id="rId161"/>
-    <hyperlink ref="I114" r:id="rId162"/>
-    <hyperlink ref="I123" r:id="rId163"/>
-    <hyperlink ref="I36" r:id="rId164"/>
-    <hyperlink ref="I187" r:id="rId165"/>
-    <hyperlink ref="I170" r:id="rId166"/>
-    <hyperlink ref="I139" r:id="rId167"/>
-    <hyperlink ref="I153" r:id="rId168"/>
-    <hyperlink ref="I29" r:id="rId169"/>
-    <hyperlink ref="I26" r:id="rId170"/>
-    <hyperlink ref="I168" r:id="rId171"/>
-    <hyperlink ref="I40" r:id="rId172"/>
-    <hyperlink ref="I218" r:id="rId173"/>
-    <hyperlink ref="I50" r:id="rId174"/>
-    <hyperlink ref="I42" r:id="rId175"/>
-    <hyperlink ref="I66" r:id="rId176"/>
-    <hyperlink ref="I67" r:id="rId177"/>
-    <hyperlink ref="I35" r:id="rId178"/>
-    <hyperlink ref="I56" r:id="rId179"/>
-    <hyperlink ref="I173" r:id="rId180"/>
-    <hyperlink ref="I142" r:id="rId181"/>
-    <hyperlink ref="I12" r:id="rId182"/>
-    <hyperlink ref="I140" r:id="rId183"/>
-    <hyperlink ref="I19" r:id="rId184"/>
-    <hyperlink ref="I48" r:id="rId185"/>
-    <hyperlink ref="I147" r:id="rId186"/>
-    <hyperlink ref="I106" r:id="rId187"/>
-    <hyperlink ref="I79" r:id="rId188"/>
-    <hyperlink ref="I138" r:id="rId189"/>
-    <hyperlink ref="I71" r:id="rId190"/>
-    <hyperlink ref="I14" r:id="rId191"/>
-    <hyperlink ref="I162" r:id="rId192"/>
-    <hyperlink ref="I28" r:id="rId193"/>
-    <hyperlink ref="I65" r:id="rId194"/>
-    <hyperlink ref="I83" r:id="rId195"/>
-    <hyperlink ref="I219" r:id="rId196"/>
-    <hyperlink ref="I45" r:id="rId197"/>
-    <hyperlink ref="I194" r:id="rId198"/>
-    <hyperlink ref="I165" r:id="rId199"/>
-    <hyperlink ref="I80" r:id="rId200"/>
-    <hyperlink ref="I41" r:id="rId201"/>
-    <hyperlink ref="I145" r:id="rId202"/>
-    <hyperlink ref="I89" r:id="rId203"/>
-    <hyperlink ref="I82" r:id="rId204"/>
-    <hyperlink ref="I156" r:id="rId205"/>
-    <hyperlink ref="I92" r:id="rId206"/>
-    <hyperlink ref="I247" r:id="rId207"/>
-    <hyperlink ref="I81" r:id="rId208"/>
-    <hyperlink ref="I23" r:id="rId209"/>
-    <hyperlink ref="I17" r:id="rId210"/>
-    <hyperlink ref="I105" r:id="rId211"/>
-    <hyperlink ref="I143" r:id="rId212"/>
-    <hyperlink ref="I125" r:id="rId213"/>
-    <hyperlink ref="I54" r:id="rId214"/>
-    <hyperlink ref="I245" r:id="rId215"/>
-    <hyperlink ref="I126" r:id="rId216"/>
-    <hyperlink ref="I84" r:id="rId217"/>
-    <hyperlink ref="I43" r:id="rId218"/>
-    <hyperlink ref="I15" r:id="rId219"/>
-    <hyperlink ref="I207" r:id="rId220"/>
-    <hyperlink ref="I144" r:id="rId221"/>
-    <hyperlink ref="I124" r:id="rId222"/>
-    <hyperlink ref="I101" r:id="rId223"/>
-    <hyperlink ref="I110" r:id="rId224"/>
-    <hyperlink ref="I209" r:id="rId225"/>
-    <hyperlink ref="I154" r:id="rId226"/>
-    <hyperlink ref="I103" r:id="rId227"/>
-    <hyperlink ref="I18" r:id="rId228"/>
-    <hyperlink ref="I146" r:id="rId229"/>
-    <hyperlink ref="I248" r:id="rId230"/>
-    <hyperlink ref="I227" r:id="rId231"/>
-    <hyperlink ref="I94" r:id="rId232"/>
-    <hyperlink ref="I278" r:id="rId233"/>
-    <hyperlink ref="I88" r:id="rId234"/>
-    <hyperlink ref="I283" r:id="rId235"/>
-    <hyperlink ref="I127" r:id="rId236"/>
-    <hyperlink ref="I182" r:id="rId237"/>
-    <hyperlink ref="I11" r:id="rId238"/>
-    <hyperlink ref="I44" r:id="rId239"/>
-    <hyperlink ref="I91" r:id="rId240"/>
-    <hyperlink ref="I77" r:id="rId241"/>
-    <hyperlink ref="I30" r:id="rId242"/>
-    <hyperlink ref="I220" r:id="rId243"/>
-    <hyperlink ref="I271" r:id="rId244"/>
-    <hyperlink ref="I10" r:id="rId245"/>
-    <hyperlink ref="I228" r:id="rId246"/>
-    <hyperlink ref="I279" r:id="rId247"/>
-    <hyperlink ref="I277" r:id="rId248"/>
-    <hyperlink ref="I206" r:id="rId249"/>
-    <hyperlink ref="I74" r:id="rId250"/>
-    <hyperlink ref="I64" r:id="rId251"/>
-    <hyperlink ref="I164" r:id="rId252"/>
-    <hyperlink ref="I57" r:id="rId253"/>
-    <hyperlink ref="I8" r:id="rId254"/>
-    <hyperlink ref="I13" r:id="rId255"/>
-    <hyperlink ref="I78" r:id="rId256"/>
-    <hyperlink ref="I169" r:id="rId257"/>
-    <hyperlink ref="I96" r:id="rId258"/>
-    <hyperlink ref="I221" r:id="rId259"/>
-    <hyperlink ref="I258" r:id="rId260"/>
-    <hyperlink ref="I241" r:id="rId261"/>
-    <hyperlink ref="I262" r:id="rId262"/>
-    <hyperlink ref="I176" r:id="rId263"/>
-    <hyperlink ref="I244" r:id="rId264"/>
-    <hyperlink ref="I239" r:id="rId265"/>
-    <hyperlink ref="I212" r:id="rId266"/>
-    <hyperlink ref="I263" r:id="rId267"/>
-    <hyperlink ref="I185" r:id="rId268"/>
-    <hyperlink ref="I196" r:id="rId269"/>
-    <hyperlink ref="I249" r:id="rId270"/>
-    <hyperlink ref="I155" r:id="rId271"/>
-    <hyperlink ref="I300" r:id="rId272"/>
-    <hyperlink ref="I236" r:id="rId273"/>
-    <hyperlink ref="I268" r:id="rId274"/>
-    <hyperlink ref="I301" r:id="rId275"/>
-    <hyperlink ref="I188" r:id="rId276"/>
-    <hyperlink ref="I297" r:id="rId277"/>
-    <hyperlink ref="I230" r:id="rId278"/>
-    <hyperlink ref="I240" r:id="rId279"/>
-    <hyperlink ref="I157" r:id="rId280"/>
-    <hyperlink ref="I243" r:id="rId281"/>
-    <hyperlink ref="I232" r:id="rId282"/>
-    <hyperlink ref="I287" r:id="rId283"/>
-    <hyperlink ref="I294" r:id="rId284"/>
-    <hyperlink ref="I288" r:id="rId285"/>
-    <hyperlink ref="I267" r:id="rId286"/>
-    <hyperlink ref="I190" r:id="rId287"/>
-    <hyperlink ref="I25" r:id="rId288"/>
-    <hyperlink ref="I302" r:id="rId289"/>
-    <hyperlink ref="I97" r:id="rId290"/>
-    <hyperlink ref="I104" r:id="rId291"/>
-    <hyperlink ref="I51" r:id="rId292"/>
-    <hyperlink ref="I184" r:id="rId293"/>
-    <hyperlink ref="I257" r:id="rId294"/>
-    <hyperlink ref="I222" r:id="rId295"/>
-    <hyperlink ref="I303" r:id="rId296"/>
-    <hyperlink ref="I290" r:id="rId297"/>
-    <hyperlink ref="I46" r:id="rId298"/>
-    <hyperlink ref="I38" r:id="rId299"/>
+    <hyperlink ref="N214" r:id="rId1"/>
+    <hyperlink ref="N111" r:id="rId2"/>
+    <hyperlink ref="N217" r:id="rId3"/>
+    <hyperlink ref="N108" r:id="rId4"/>
+    <hyperlink ref="N174" r:id="rId5"/>
+    <hyperlink ref="N107" r:id="rId6"/>
+    <hyperlink ref="N192" r:id="rId7"/>
+    <hyperlink ref="N193" r:id="rId8"/>
+    <hyperlink ref="N34" r:id="rId9"/>
+    <hyperlink ref="N171" r:id="rId10"/>
+    <hyperlink ref="N52" r:id="rId11"/>
+    <hyperlink ref="N191" r:id="rId12"/>
+    <hyperlink ref="N255" r:id="rId13"/>
+    <hyperlink ref="N133" r:id="rId14"/>
+    <hyperlink ref="N121" r:id="rId15"/>
+    <hyperlink ref="N68" r:id="rId16"/>
+    <hyperlink ref="N202" r:id="rId17"/>
+    <hyperlink ref="N151" r:id="rId18"/>
+    <hyperlink ref="N172" r:id="rId19"/>
+    <hyperlink ref="N246" r:id="rId20"/>
+    <hyperlink ref="N102" r:id="rId21"/>
+    <hyperlink ref="N61" r:id="rId22"/>
+    <hyperlink ref="N251" r:id="rId23"/>
+    <hyperlink ref="N274" r:id="rId24"/>
+    <hyperlink ref="N231" r:id="rId25"/>
+    <hyperlink ref="N113" r:id="rId26"/>
+    <hyperlink ref="N181" r:id="rId27"/>
+    <hyperlink ref="N204" r:id="rId28"/>
+    <hyperlink ref="N269" r:id="rId29"/>
+    <hyperlink ref="N208" r:id="rId30"/>
+    <hyperlink ref="N86" r:id="rId31"/>
+    <hyperlink ref="N109" r:id="rId32"/>
+    <hyperlink ref="N150" r:id="rId33"/>
+    <hyperlink ref="N180" r:id="rId34"/>
+    <hyperlink ref="N53" r:id="rId35"/>
+    <hyperlink ref="N62" r:id="rId36"/>
+    <hyperlink ref="N70" r:id="rId37"/>
+    <hyperlink ref="N120" r:id="rId38"/>
+    <hyperlink ref="N7" r:id="rId39"/>
+    <hyperlink ref="N282" r:id="rId40"/>
+    <hyperlink ref="N27" r:id="rId41"/>
+    <hyperlink ref="N112" r:id="rId42"/>
+    <hyperlink ref="N95" r:id="rId43"/>
+    <hyperlink ref="N295" r:id="rId44"/>
+    <hyperlink ref="N149" r:id="rId45"/>
+    <hyperlink ref="N203" r:id="rId46"/>
+    <hyperlink ref="N100" r:id="rId47"/>
+    <hyperlink ref="N177" r:id="rId48"/>
+    <hyperlink ref="N298" r:id="rId49"/>
+    <hyperlink ref="N141" r:id="rId50"/>
+    <hyperlink ref="N256" r:id="rId51"/>
+    <hyperlink ref="N87" r:id="rId52"/>
+    <hyperlink ref="N16" r:id="rId53"/>
+    <hyperlink ref="N281" r:id="rId54"/>
+    <hyperlink ref="N32" r:id="rId55"/>
+    <hyperlink ref="N137" r:id="rId56"/>
+    <hyperlink ref="N33" r:id="rId57"/>
+    <hyperlink ref="N201" r:id="rId58"/>
+    <hyperlink ref="N233" r:id="rId59"/>
+    <hyperlink ref="N200" r:id="rId60"/>
+    <hyperlink ref="N292" r:id="rId61"/>
+    <hyperlink ref="N198" r:id="rId62"/>
+    <hyperlink ref="N179" r:id="rId63"/>
+    <hyperlink ref="N93" r:id="rId64"/>
+    <hyperlink ref="N135" r:id="rId65"/>
+    <hyperlink ref="N226" r:id="rId66"/>
+    <hyperlink ref="N76" r:id="rId67"/>
+    <hyperlink ref="N289" r:id="rId68"/>
+    <hyperlink ref="N211" r:id="rId69"/>
+    <hyperlink ref="N152" r:id="rId70"/>
+    <hyperlink ref="N59" r:id="rId71"/>
+    <hyperlink ref="N75" r:id="rId72"/>
+    <hyperlink ref="N275" r:id="rId73"/>
+    <hyperlink ref="N205" r:id="rId74"/>
+    <hyperlink ref="N63" r:id="rId75"/>
+    <hyperlink ref="N99" r:id="rId76"/>
+    <hyperlink ref="N272" r:id="rId77"/>
+    <hyperlink ref="N136" r:id="rId78"/>
+    <hyperlink ref="N148" r:id="rId79"/>
+    <hyperlink ref="N266" r:id="rId80"/>
+    <hyperlink ref="N73" r:id="rId81"/>
+    <hyperlink ref="N98" r:id="rId82"/>
+    <hyperlink ref="N178" r:id="rId83"/>
+    <hyperlink ref="N296" r:id="rId84"/>
+    <hyperlink ref="N225" r:id="rId85"/>
+    <hyperlink ref="N284" r:id="rId86"/>
+    <hyperlink ref="N197" r:id="rId87"/>
+    <hyperlink ref="N22" r:id="rId88"/>
+    <hyperlink ref="N293" r:id="rId89"/>
+    <hyperlink ref="N160" r:id="rId90"/>
+    <hyperlink ref="N254" r:id="rId91"/>
+    <hyperlink ref="N270" r:id="rId92"/>
+    <hyperlink ref="N195" r:id="rId93"/>
+    <hyperlink ref="N134" r:id="rId94"/>
+    <hyperlink ref="N131" r:id="rId95"/>
+    <hyperlink ref="N90" r:id="rId96"/>
+    <hyperlink ref="N186" r:id="rId97"/>
+    <hyperlink ref="N132" r:id="rId98"/>
+    <hyperlink ref="N158" r:id="rId99"/>
+    <hyperlink ref="N159" r:id="rId100"/>
+    <hyperlink ref="N215" r:id="rId101"/>
+    <hyperlink ref="N223" r:id="rId102"/>
+    <hyperlink ref="N31" r:id="rId103"/>
+    <hyperlink ref="N235" r:id="rId104"/>
+    <hyperlink ref="N238" r:id="rId105"/>
+    <hyperlink ref="N260" r:id="rId106"/>
+    <hyperlink ref="N85" r:id="rId107"/>
+    <hyperlink ref="N189" r:id="rId108"/>
+    <hyperlink ref="N115" r:id="rId109"/>
+    <hyperlink ref="N199" r:id="rId110"/>
+    <hyperlink ref="N261" r:id="rId111"/>
+    <hyperlink ref="N264" r:id="rId112"/>
+    <hyperlink ref="N242" r:id="rId113"/>
+    <hyperlink ref="N280" r:id="rId114"/>
+    <hyperlink ref="N183" r:id="rId115"/>
+    <hyperlink ref="N72" r:id="rId116"/>
+    <hyperlink ref="N118" r:id="rId117"/>
+    <hyperlink ref="N276" r:id="rId118"/>
+    <hyperlink ref="N213" r:id="rId119"/>
+    <hyperlink ref="N285" r:id="rId120"/>
+    <hyperlink ref="N299" r:id="rId121"/>
+    <hyperlink ref="N252" r:id="rId122"/>
+    <hyperlink ref="N55" r:id="rId123"/>
+    <hyperlink ref="N175" r:id="rId124"/>
+    <hyperlink ref="N291" r:id="rId125"/>
+    <hyperlink ref="N210" r:id="rId126"/>
+    <hyperlink ref="N128" r:id="rId127"/>
+    <hyperlink ref="N237" r:id="rId128"/>
+    <hyperlink ref="N117" r:id="rId129"/>
+    <hyperlink ref="N224" r:id="rId130"/>
+    <hyperlink ref="N130" r:id="rId131"/>
+    <hyperlink ref="N273" r:id="rId132"/>
+    <hyperlink ref="N116" r:id="rId133"/>
+    <hyperlink ref="N129" r:id="rId134"/>
+    <hyperlink ref="N229" r:id="rId135"/>
+    <hyperlink ref="N234" r:id="rId136"/>
+    <hyperlink ref="N286" r:id="rId137"/>
+    <hyperlink ref="N253" r:id="rId138"/>
+    <hyperlink ref="N265" r:id="rId139"/>
+    <hyperlink ref="N58" r:id="rId140"/>
+    <hyperlink ref="N250" r:id="rId141"/>
+    <hyperlink ref="N259" r:id="rId142"/>
+    <hyperlink ref="N47" r:id="rId143"/>
+    <hyperlink ref="N69" r:id="rId144"/>
+    <hyperlink ref="N24" r:id="rId145"/>
+    <hyperlink ref="N39" r:id="rId146"/>
+    <hyperlink ref="N119" r:id="rId147"/>
+    <hyperlink ref="N167" r:id="rId148"/>
+    <hyperlink ref="N37" r:id="rId149"/>
+    <hyperlink ref="N166" r:id="rId150"/>
+    <hyperlink ref="N21" r:id="rId151"/>
+    <hyperlink ref="N163" r:id="rId152"/>
+    <hyperlink ref="N60" r:id="rId153"/>
+    <hyperlink ref="N122" r:id="rId154"/>
+    <hyperlink ref="N216" r:id="rId155"/>
+    <hyperlink ref="N49" r:id="rId156"/>
+    <hyperlink ref="N6" r:id="rId157"/>
+    <hyperlink ref="N5" r:id="rId158"/>
+    <hyperlink ref="N4" r:id="rId159"/>
+    <hyperlink ref="N161" r:id="rId160"/>
+    <hyperlink ref="N9" r:id="rId161"/>
+    <hyperlink ref="N114" r:id="rId162"/>
+    <hyperlink ref="N123" r:id="rId163"/>
+    <hyperlink ref="N36" r:id="rId164"/>
+    <hyperlink ref="N187" r:id="rId165"/>
+    <hyperlink ref="N170" r:id="rId166"/>
+    <hyperlink ref="N139" r:id="rId167"/>
+    <hyperlink ref="N153" r:id="rId168"/>
+    <hyperlink ref="N29" r:id="rId169"/>
+    <hyperlink ref="N26" r:id="rId170"/>
+    <hyperlink ref="N168" r:id="rId171"/>
+    <hyperlink ref="N40" r:id="rId172"/>
+    <hyperlink ref="N218" r:id="rId173"/>
+    <hyperlink ref="N50" r:id="rId174"/>
+    <hyperlink ref="N42" r:id="rId175"/>
+    <hyperlink ref="N66" r:id="rId176"/>
+    <hyperlink ref="N67" r:id="rId177"/>
+    <hyperlink ref="N35" r:id="rId178"/>
+    <hyperlink ref="N56" r:id="rId179"/>
+    <hyperlink ref="N173" r:id="rId180"/>
+    <hyperlink ref="N142" r:id="rId181"/>
+    <hyperlink ref="N12" r:id="rId182"/>
+    <hyperlink ref="N140" r:id="rId183"/>
+    <hyperlink ref="N19" r:id="rId184"/>
+    <hyperlink ref="N48" r:id="rId185"/>
+    <hyperlink ref="N147" r:id="rId186"/>
+    <hyperlink ref="N106" r:id="rId187"/>
+    <hyperlink ref="N79" r:id="rId188"/>
+    <hyperlink ref="N138" r:id="rId189"/>
+    <hyperlink ref="N71" r:id="rId190"/>
+    <hyperlink ref="N14" r:id="rId191"/>
+    <hyperlink ref="N162" r:id="rId192"/>
+    <hyperlink ref="N28" r:id="rId193"/>
+    <hyperlink ref="N65" r:id="rId194"/>
+    <hyperlink ref="N83" r:id="rId195"/>
+    <hyperlink ref="N219" r:id="rId196"/>
+    <hyperlink ref="N45" r:id="rId197"/>
+    <hyperlink ref="N194" r:id="rId198"/>
+    <hyperlink ref="N165" r:id="rId199"/>
+    <hyperlink ref="N80" r:id="rId200"/>
+    <hyperlink ref="N41" r:id="rId201"/>
+    <hyperlink ref="N145" r:id="rId202"/>
+    <hyperlink ref="N89" r:id="rId203"/>
+    <hyperlink ref="N82" r:id="rId204"/>
+    <hyperlink ref="N156" r:id="rId205"/>
+    <hyperlink ref="N92" r:id="rId206"/>
+    <hyperlink ref="N247" r:id="rId207"/>
+    <hyperlink ref="N81" r:id="rId208"/>
+    <hyperlink ref="N23" r:id="rId209"/>
+    <hyperlink ref="N17" r:id="rId210"/>
+    <hyperlink ref="N105" r:id="rId211"/>
+    <hyperlink ref="N143" r:id="rId212"/>
+    <hyperlink ref="N125" r:id="rId213"/>
+    <hyperlink ref="N54" r:id="rId214"/>
+    <hyperlink ref="N245" r:id="rId215"/>
+    <hyperlink ref="N126" r:id="rId216"/>
+    <hyperlink ref="N84" r:id="rId217"/>
+    <hyperlink ref="N43" r:id="rId218"/>
+    <hyperlink ref="N15" r:id="rId219"/>
+    <hyperlink ref="N207" r:id="rId220"/>
+    <hyperlink ref="N144" r:id="rId221"/>
+    <hyperlink ref="N124" r:id="rId222"/>
+    <hyperlink ref="N101" r:id="rId223"/>
+    <hyperlink ref="N110" r:id="rId224"/>
+    <hyperlink ref="N209" r:id="rId225"/>
+    <hyperlink ref="N154" r:id="rId226"/>
+    <hyperlink ref="N103" r:id="rId227"/>
+    <hyperlink ref="N18" r:id="rId228"/>
+    <hyperlink ref="N146" r:id="rId229"/>
+    <hyperlink ref="N248" r:id="rId230"/>
+    <hyperlink ref="N227" r:id="rId231"/>
+    <hyperlink ref="N94" r:id="rId232"/>
+    <hyperlink ref="N278" r:id="rId233"/>
+    <hyperlink ref="N88" r:id="rId234"/>
+    <hyperlink ref="N283" r:id="rId235"/>
+    <hyperlink ref="N127" r:id="rId236"/>
+    <hyperlink ref="N182" r:id="rId237"/>
+    <hyperlink ref="N11" r:id="rId238"/>
+    <hyperlink ref="N44" r:id="rId239"/>
+    <hyperlink ref="N91" r:id="rId240"/>
+    <hyperlink ref="N77" r:id="rId241"/>
+    <hyperlink ref="N30" r:id="rId242"/>
+    <hyperlink ref="N220" r:id="rId243"/>
+    <hyperlink ref="N271" r:id="rId244"/>
+    <hyperlink ref="N10" r:id="rId245"/>
+    <hyperlink ref="N228" r:id="rId246"/>
+    <hyperlink ref="N279" r:id="rId247"/>
+    <hyperlink ref="N277" r:id="rId248"/>
+    <hyperlink ref="N206" r:id="rId249"/>
+    <hyperlink ref="N74" r:id="rId250"/>
+    <hyperlink ref="N64" r:id="rId251"/>
+    <hyperlink ref="N164" r:id="rId252"/>
+    <hyperlink ref="N57" r:id="rId253"/>
+    <hyperlink ref="N8" r:id="rId254"/>
+    <hyperlink ref="N13" r:id="rId255"/>
+    <hyperlink ref="N78" r:id="rId256"/>
+    <hyperlink ref="N169" r:id="rId257"/>
+    <hyperlink ref="N96" r:id="rId258"/>
+    <hyperlink ref="N221" r:id="rId259"/>
+    <hyperlink ref="N258" r:id="rId260"/>
+    <hyperlink ref="N241" r:id="rId261"/>
+    <hyperlink ref="N262" r:id="rId262"/>
+    <hyperlink ref="N176" r:id="rId263"/>
+    <hyperlink ref="N244" r:id="rId264"/>
+    <hyperlink ref="N239" r:id="rId265"/>
+    <hyperlink ref="N212" r:id="rId266"/>
+    <hyperlink ref="N263" r:id="rId267"/>
+    <hyperlink ref="N185" r:id="rId268"/>
+    <hyperlink ref="N196" r:id="rId269"/>
+    <hyperlink ref="N249" r:id="rId270"/>
+    <hyperlink ref="N155" r:id="rId271"/>
+    <hyperlink ref="N300" r:id="rId272"/>
+    <hyperlink ref="N236" r:id="rId273"/>
+    <hyperlink ref="N268" r:id="rId274"/>
+    <hyperlink ref="N301" r:id="rId275"/>
+    <hyperlink ref="N188" r:id="rId276"/>
+    <hyperlink ref="N297" r:id="rId277"/>
+    <hyperlink ref="N230" r:id="rId278"/>
+    <hyperlink ref="N240" r:id="rId279"/>
+    <hyperlink ref="N157" r:id="rId280"/>
+    <hyperlink ref="N243" r:id="rId281"/>
+    <hyperlink ref="N232" r:id="rId282"/>
+    <hyperlink ref="N287" r:id="rId283"/>
+    <hyperlink ref="N294" r:id="rId284"/>
+    <hyperlink ref="N288" r:id="rId285"/>
+    <hyperlink ref="N267" r:id="rId286"/>
+    <hyperlink ref="N190" r:id="rId287"/>
+    <hyperlink ref="N25" r:id="rId288"/>
+    <hyperlink ref="N302" r:id="rId289"/>
+    <hyperlink ref="N97" r:id="rId290"/>
+    <hyperlink ref="N104" r:id="rId291"/>
+    <hyperlink ref="N51" r:id="rId292"/>
+    <hyperlink ref="N184" r:id="rId293"/>
+    <hyperlink ref="N257" r:id="rId294"/>
+    <hyperlink ref="N222" r:id="rId295"/>
+    <hyperlink ref="N303" r:id="rId296"/>
+    <hyperlink ref="N290" r:id="rId297"/>
+    <hyperlink ref="N46" r:id="rId298"/>
+    <hyperlink ref="N38" r:id="rId299"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId300"/>
